--- a/LubanTools/DesignerConfigs/Datas/BuildingLevel_建筑等级表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/BuildingLevel_建筑等级表.xlsx
@@ -1,44 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MFXZ\sky3d-cfg\LubanTools\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49928C6-3BEB-48B7-A2F7-32AE2174FD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="辅助" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1 核心类
@@ -51,12 +45,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1 游客中心
@@ -88,13 +83,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -103,6 +99,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -116,12 +113,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">建筑提供的繁荣度
@@ -129,12 +127,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1：枢纽
@@ -148,12 +147,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <sz val="12"/>
             <rFont val="微软雅黑"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">填岛屿类型
@@ -161,24 +161,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>读取item表id字段</t>
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">-1表示不接待游客
@@ -186,13 +188,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -201,6 +204,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -209,24 +213,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>产出后的会先进入原建筑储存，再点击一次才会进入对应的仓库</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">产生物品需要消耗的资源及数量。供给类和服务类的产出消耗都在这里读取
@@ -234,25 +240,27 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>含义：蒸汽压力可以调配到的最大值</t>
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -261,6 +269,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -271,13 +280,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">条件类型：配置数据为且的关系
@@ -287,6 +297,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>空：无条件
@@ -295,12 +306,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1：可存放
@@ -308,13 +320,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -323,6 +336,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -336,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="403">
   <si>
     <t>##var</t>
   </si>
@@ -550,6 +564,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -559,6 +574,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>l</t>
@@ -568,6 +584,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ist#sep=|),</t>
@@ -577,6 +594,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>zsEnum.IslandType</t>
@@ -964,7 +982,7 @@
     <t>农田</t>
   </si>
   <si>
-    <t>30001;120|30002;60|30003;15</t>
+    <t>30001;88|30002;44|30003;18</t>
   </si>
   <si>
     <t>Concept_nongtian_01</t>
@@ -973,31 +991,31 @@
     <t>0.499|0.794</t>
   </si>
   <si>
-    <t>30001;144|30002;72|30003;18</t>
-  </si>
-  <si>
-    <t>30001;168|30002;84|30003;21</t>
-  </si>
-  <si>
-    <t>30001;192|30002;96|30003;24</t>
-  </si>
-  <si>
-    <t>30001;216|30002;108|30003;27</t>
-  </si>
-  <si>
-    <t>30001;240|30002;120|30003;30</t>
-  </si>
-  <si>
-    <t>30001;264|30002;132|30003;33</t>
-  </si>
-  <si>
-    <t>30001;288|30002;144|30003;36</t>
-  </si>
-  <si>
-    <t>30001;312|30002;156|30003;39</t>
-  </si>
-  <si>
-    <t>30001;336|30002;168|30003;42</t>
+    <t>30001;112|30002;56|30003;23</t>
+  </si>
+  <si>
+    <t>30001;135|30002;68|30003;28</t>
+  </si>
+  <si>
+    <t>30001;159|30002;79|30003;32</t>
+  </si>
+  <si>
+    <t>30001;182|30002;91|30003;37</t>
+  </si>
+  <si>
+    <t>30001;206|30002;103|30003;42</t>
+  </si>
+  <si>
+    <t>30001;229|30002;115|30003;47</t>
+  </si>
+  <si>
+    <t>30001;253|30002;126|30003;51</t>
+  </si>
+  <si>
+    <t>30001;276|30002;138|30003;56</t>
+  </si>
+  <si>
+    <t>30001;300|30002;150|30003;61</t>
   </si>
   <si>
     <t>伐木场</t>
@@ -1081,7 +1099,7 @@
     <t>畜牧场</t>
   </si>
   <si>
-    <t>30004;90|30005;60</t>
+    <t>30004;94|30005;80</t>
   </si>
   <si>
     <t>Concept_sky_xumu_01</t>
@@ -1090,31 +1108,31 @@
     <t>0.523|0.877</t>
   </si>
   <si>
-    <t>30004;108|30005;72</t>
-  </si>
-  <si>
-    <t>30004;126|30005;84</t>
-  </si>
-  <si>
-    <t>30004;144|30005;96</t>
-  </si>
-  <si>
-    <t>30004;162|30005;108</t>
-  </si>
-  <si>
-    <t>30004;180|30005;120</t>
-  </si>
-  <si>
-    <t>30004;198|30005;132</t>
-  </si>
-  <si>
-    <t>30004;216|30005;144</t>
-  </si>
-  <si>
-    <t>30004;234|30005;156</t>
-  </si>
-  <si>
-    <t>30004;252|30005;168</t>
+    <t>30004;119|30005;102</t>
+  </si>
+  <si>
+    <t>30004;145|30005;123</t>
+  </si>
+  <si>
+    <t>30004;170|30005;145</t>
+  </si>
+  <si>
+    <t>30004;195|30005;166</t>
+  </si>
+  <si>
+    <t>30004;221|30005;188</t>
+  </si>
+  <si>
+    <t>30004;246|30005;209</t>
+  </si>
+  <si>
+    <t>30004;271|30005;231</t>
+  </si>
+  <si>
+    <t>30004;297|30005;252</t>
+  </si>
+  <si>
+    <t>30004;322|30005;274</t>
   </si>
   <si>
     <t>夜市轻食摊</t>
@@ -1123,10 +1141,10 @@
     <t>1;6;4</t>
   </si>
   <si>
-    <t>31001;5</t>
-  </si>
-  <si>
-    <t>30001;3|30004;2|30003;1|20001;1</t>
+    <t>31001;1</t>
+  </si>
+  <si>
+    <t>30001;4|30004;10|30005;10</t>
   </si>
   <si>
     <t>Concept_lightfoodstall_01</t>
@@ -1171,10 +1189,10 @@
     <t>1;4</t>
   </si>
   <si>
-    <t>31002;4</t>
-  </si>
-  <si>
-    <t>30001;2|30003;1|20001;1</t>
+    <t>31002;1</t>
+  </si>
+  <si>
+    <t>30002;3|30003;1</t>
   </si>
   <si>
     <t>Concept_teahouse_01</t>
@@ -1189,10 +1207,10 @@
     <t>1;7</t>
   </si>
   <si>
-    <t>31003;4</t>
-  </si>
-  <si>
-    <t>30001;4|30004;2|30003;1|20001;2</t>
+    <t>31003;1</t>
+  </si>
+  <si>
+    <t>30001;10|30004;10|30005;10</t>
   </si>
   <si>
     <t>Concept_pizzahouse_01</t>
@@ -1204,10 +1222,10 @@
     <t>手冲咖啡站</t>
   </si>
   <si>
-    <t>31004;4</t>
-  </si>
-  <si>
-    <t>30001;1|30003;1|20001;1</t>
+    <t>31004;1</t>
+  </si>
+  <si>
+    <t>30002;2|30003;1|30005;2</t>
   </si>
   <si>
     <t>Concept_handbrewcafe_01</t>
@@ -1219,10 +1237,10 @@
     <t>海风果汁吧</t>
   </si>
   <si>
-    <t>31005;4</t>
-  </si>
-  <si>
-    <t>30002;3|30003;1|20001;1</t>
+    <t>31005;1</t>
+  </si>
+  <si>
+    <t>30001;3|30002;3</t>
   </si>
   <si>
     <t>Concept_seabreezejuicebar_01</t>
@@ -1237,10 +1255,10 @@
     <t>1;6</t>
   </si>
   <si>
-    <t>31006;4</t>
-  </si>
-  <si>
-    <t>30004;3|30003;1|20002;1|20001;1</t>
+    <t>31006;1</t>
+  </si>
+  <si>
+    <t>30001;40|30003;10|30004;40</t>
   </si>
   <si>
     <t>Concept_seafoodstall_01</t>
@@ -1464,6 +1482,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1474,6 +1493,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1484,6 +1504,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1494,6 +1515,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1504,6 +1526,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1514,6 +1537,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1524,6 +1548,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1534,6 +1559,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1582,6 +1608,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1592,6 +1619,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1604,6 +1632,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1614,6 +1643,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1629,6 +1659,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1639,6 +1670,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1646,6 +1678,15 @@
     </r>
   </si>
   <si>
+    <t>31004;4</t>
+  </si>
+  <si>
+    <t>31005;4</t>
+  </si>
+  <si>
+    <t>31006;4</t>
+  </si>
+  <si>
     <t>美食</t>
   </si>
   <si>
@@ -1654,6 +1695,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1665,6 +1707,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1675,6 +1718,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1690,6 +1734,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1701,6 +1746,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1711,6 +1757,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1726,6 +1773,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1737,6 +1785,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1747,6 +1796,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1762,6 +1812,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1773,6 +1824,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1788,6 +1840,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1799,6 +1852,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1809,6 +1863,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1824,6 +1879,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1835,6 +1891,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1845,6 +1902,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1860,6 +1918,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1871,6 +1930,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1881,6 +1941,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1893,6 +1954,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1904,6 +1966,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1914,6 +1977,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1926,6 +1990,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1937,6 +2002,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1947,6 +2013,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1959,6 +2026,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1970,6 +2038,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1982,6 +2051,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1993,6 +2063,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2005,6 +2076,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2016,6 +2088,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2028,6 +2101,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2039,6 +2113,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2049,6 +2124,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2061,6 +2137,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2072,6 +2149,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2082,6 +2160,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2092,14 +2171,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2112,6 +2185,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2119,6 +2193,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2126,170 +2201,45 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2298,7 +2248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2308,188 +2258,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2540,251 +2310,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2842,89 +2370,158 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -2935,7 +2532,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -2963,154 +2560,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3360,23 +2843,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AP274"/>
+  <dimension ref="A1:AO274"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="O38" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="3" ySplit="4" topLeftCell="X65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K242" sqref="K242"/>
+      <selection pane="bottomRight" activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="4"/>
     <col min="3" max="3" width="15.375" style="4" customWidth="1"/>
@@ -3387,25 +2870,23 @@
     <col min="8" max="8" width="37.125" style="4" customWidth="1"/>
     <col min="9" max="10" width="9" style="4"/>
     <col min="11" max="11" width="25.25" style="4" customWidth="1"/>
-    <col min="12" max="12" width="11.875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="29.375" style="4" customWidth="1"/>
+    <col min="12" max="13" width="11.875" style="4" customWidth="1"/>
     <col min="14" max="15" width="10.875" style="4" customWidth="1"/>
     <col min="16" max="16" width="27.75" style="4" customWidth="1"/>
     <col min="17" max="17" width="35.75" style="4" customWidth="1"/>
-    <col min="18" max="18" width="39.25" style="4" customWidth="1"/>
-    <col min="19" max="19" width="9" style="4"/>
+    <col min="18" max="19" width="9" style="4"/>
     <col min="20" max="20" width="31.25" style="4" customWidth="1"/>
     <col min="21" max="21" width="20.375" style="4" customWidth="1"/>
     <col min="22" max="22" width="28.5" style="4" customWidth="1"/>
     <col min="23" max="23" width="20.375" style="4" customWidth="1"/>
     <col min="24" max="24" width="10.375" style="4" customWidth="1"/>
-    <col min="25" max="25" width="44.5" style="4" customWidth="1"/>
+    <col min="25" max="25" width="8.625" style="4" customWidth="1"/>
     <col min="26" max="26" width="7.875" style="5" customWidth="1"/>
     <col min="27" max="27" width="49.125" style="6" customWidth="1"/>
     <col min="28" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3507,9 +2988,8 @@
       <c r="AM1" s="7"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-    </row>
-    <row r="2" spans="1:42">
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -3611,9 +3091,8 @@
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-    </row>
-    <row r="3" spans="1:42">
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>60</v>
       </c>
@@ -3715,9 +3194,8 @@
       <c r="AM3" s="7"/>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-    </row>
-    <row r="4" spans="1:42">
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>63</v>
       </c>
@@ -3819,9 +3297,8 @@
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
-    </row>
-    <row r="5" spans="1:42">
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="13">
         <v>10101</v>
@@ -3900,9 +3377,8 @@
       <c r="AM5" s="7"/>
       <c r="AN5" s="7"/>
       <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-    </row>
-    <row r="6" spans="1:42">
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="17">
         <v>10102</v>
@@ -3982,9 +3458,8 @@
       <c r="AM6" s="7"/>
       <c r="AN6" s="7"/>
       <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-    </row>
-    <row r="7" spans="1:42">
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="17">
         <v>10103</v>
@@ -4064,9 +3539,8 @@
       <c r="AM7" s="7"/>
       <c r="AN7" s="7"/>
       <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-    </row>
-    <row r="8" spans="1:42">
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="17">
         <v>10104</v>
@@ -4146,9 +3620,8 @@
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
       <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-    </row>
-    <row r="9" spans="1:42">
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="17">
         <v>10105</v>
@@ -4228,9 +3701,8 @@
       <c r="AM9" s="7"/>
       <c r="AN9" s="7"/>
       <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-    </row>
-    <row r="10" spans="1:42">
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="17">
         <v>10106</v>
@@ -4310,9 +3782,8 @@
       <c r="AM10" s="7"/>
       <c r="AN10" s="7"/>
       <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-    </row>
-    <row r="11" spans="1:42">
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="17">
         <v>10107</v>
@@ -4392,9 +3863,8 @@
       <c r="AM11" s="7"/>
       <c r="AN11" s="7"/>
       <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-    </row>
-    <row r="12" spans="1:42">
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="17">
         <v>10108</v>
@@ -4474,9 +3944,8 @@
       <c r="AM12" s="7"/>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-    </row>
-    <row r="13" spans="1:42">
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="17">
         <v>10109</v>
@@ -4556,9 +4025,8 @@
       <c r="AM13" s="7"/>
       <c r="AN13" s="7"/>
       <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
-    </row>
-    <row r="14" spans="1:42">
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="17">
         <v>10110</v>
@@ -4638,9 +4106,8 @@
       <c r="AM14" s="7"/>
       <c r="AN14" s="7"/>
       <c r="AO14" s="7"/>
-      <c r="AP14" s="7"/>
-    </row>
-    <row r="15" spans="1:42">
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <v>10201</v>
       </c>
@@ -4711,7 +4178,7 @@
       </c>
       <c r="AD15" s="20"/>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <v>10202</v>
       </c>
@@ -4782,7 +4249,7 @@
       </c>
       <c r="AD16" s="20"/>
     </row>
-    <row r="17" spans="2:30">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <v>10203</v>
       </c>
@@ -4853,7 +4320,7 @@
       </c>
       <c r="AD17" s="20"/>
     </row>
-    <row r="18" spans="2:30">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <v>10204</v>
       </c>
@@ -4924,7 +4391,7 @@
       </c>
       <c r="AD18" s="20"/>
     </row>
-    <row r="19" spans="2:30">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <v>10205</v>
       </c>
@@ -4995,7 +4462,7 @@
       </c>
       <c r="AD19" s="20"/>
     </row>
-    <row r="20" spans="2:30">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <v>10206</v>
       </c>
@@ -5066,7 +4533,7 @@
       </c>
       <c r="AD20" s="20"/>
     </row>
-    <row r="21" spans="2:30">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <v>10207</v>
       </c>
@@ -5137,7 +4604,7 @@
       </c>
       <c r="AD21" s="20"/>
     </row>
-    <row r="22" spans="2:30">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <v>10208</v>
       </c>
@@ -5208,7 +4675,7 @@
       </c>
       <c r="AD22" s="20"/>
     </row>
-    <row r="23" spans="2:30">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <v>10209</v>
       </c>
@@ -5279,7 +4746,7 @@
       </c>
       <c r="AD23" s="20"/>
     </row>
-    <row r="24" spans="2:30">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
         <v>10210</v>
       </c>
@@ -5350,7 +4817,7 @@
       </c>
       <c r="AD24" s="20"/>
     </row>
-    <row r="25" spans="2:30">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <v>10301</v>
       </c>
@@ -5421,7 +4888,7 @@
       </c>
       <c r="AD25" s="20"/>
     </row>
-    <row r="26" spans="2:30">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <v>10302</v>
       </c>
@@ -5492,7 +4959,7 @@
       </c>
       <c r="AD26" s="20"/>
     </row>
-    <row r="27" spans="2:30">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
         <v>10303</v>
       </c>
@@ -5563,7 +5030,7 @@
       </c>
       <c r="AD27" s="20"/>
     </row>
-    <row r="28" spans="2:30">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B28" s="17">
         <v>10304</v>
       </c>
@@ -5634,7 +5101,7 @@
       </c>
       <c r="AD28" s="20"/>
     </row>
-    <row r="29" spans="2:30">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B29" s="17">
         <v>10305</v>
       </c>
@@ -5705,7 +5172,7 @@
       </c>
       <c r="AD29" s="20"/>
     </row>
-    <row r="30" spans="2:30">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B30" s="17">
         <v>10306</v>
       </c>
@@ -5776,7 +5243,7 @@
       </c>
       <c r="AD30" s="20"/>
     </row>
-    <row r="31" spans="2:30">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B31" s="17">
         <v>10307</v>
       </c>
@@ -5847,7 +5314,7 @@
       </c>
       <c r="AD31" s="20"/>
     </row>
-    <row r="32" spans="2:30">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B32" s="17">
         <v>10308</v>
       </c>
@@ -5918,7 +5385,7 @@
       </c>
       <c r="AD32" s="20"/>
     </row>
-    <row r="33" spans="2:30">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B33" s="17">
         <v>10309</v>
       </c>
@@ -5989,7 +5456,7 @@
       </c>
       <c r="AD33" s="20"/>
     </row>
-    <row r="34" spans="2:30">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B34" s="17">
         <v>10310</v>
       </c>
@@ -6060,7 +5527,7 @@
       </c>
       <c r="AD34" s="20"/>
     </row>
-    <row r="35" spans="2:30">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B35" s="17">
         <v>10401</v>
       </c>
@@ -6131,7 +5598,7 @@
       </c>
       <c r="AD35" s="20"/>
     </row>
-    <row r="36" spans="2:30">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B36" s="17">
         <v>10402</v>
       </c>
@@ -6202,7 +5669,7 @@
       </c>
       <c r="AD36" s="20"/>
     </row>
-    <row r="37" spans="2:30">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B37" s="17">
         <v>10403</v>
       </c>
@@ -6273,7 +5740,7 @@
       </c>
       <c r="AD37" s="20"/>
     </row>
-    <row r="38" spans="2:30">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B38" s="17">
         <v>10404</v>
       </c>
@@ -6344,7 +5811,7 @@
       </c>
       <c r="AD38" s="20"/>
     </row>
-    <row r="39" spans="2:30">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B39" s="17">
         <v>10405</v>
       </c>
@@ -6415,7 +5882,7 @@
       </c>
       <c r="AD39" s="20"/>
     </row>
-    <row r="40" spans="2:30">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B40" s="17">
         <v>10406</v>
       </c>
@@ -6486,7 +5953,7 @@
       </c>
       <c r="AD40" s="20"/>
     </row>
-    <row r="41" spans="2:30">
+    <row r="41" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B41" s="17">
         <v>10407</v>
       </c>
@@ -6557,7 +6024,7 @@
       </c>
       <c r="AD41" s="20"/>
     </row>
-    <row r="42" spans="2:30">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B42" s="17">
         <v>10408</v>
       </c>
@@ -6628,7 +6095,7 @@
       </c>
       <c r="AD42" s="20"/>
     </row>
-    <row r="43" spans="2:30">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B43" s="17">
         <v>10409</v>
       </c>
@@ -6699,7 +6166,7 @@
       </c>
       <c r="AD43" s="20"/>
     </row>
-    <row r="44" spans="2:30">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B44" s="17">
         <v>10410</v>
       </c>
@@ -6770,7 +6237,7 @@
       </c>
       <c r="AD44" s="20"/>
     </row>
-    <row r="45" spans="2:30">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B45" s="17">
         <v>20101</v>
       </c>
@@ -6819,7 +6286,7 @@
         <v>4320</v>
       </c>
       <c r="S45" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T45" s="20" t="s">
         <v>122</v>
@@ -6851,7 +6318,7 @@
       </c>
       <c r="AD45" s="20"/>
     </row>
-    <row r="46" spans="2:30">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B46" s="17">
         <v>20102</v>
       </c>
@@ -6900,7 +6367,7 @@
         <v>5184</v>
       </c>
       <c r="S46" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T46" s="20" t="s">
         <v>122</v>
@@ -6932,7 +6399,7 @@
       </c>
       <c r="AD46" s="20"/>
     </row>
-    <row r="47" spans="2:30">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B47" s="17">
         <v>20103</v>
       </c>
@@ -6981,7 +6448,7 @@
         <v>6048</v>
       </c>
       <c r="S47" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T47" s="20" t="s">
         <v>122</v>
@@ -7013,7 +6480,7 @@
       </c>
       <c r="AD47" s="20"/>
     </row>
-    <row r="48" spans="2:30">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B48" s="17">
         <v>20104</v>
       </c>
@@ -7062,7 +6529,7 @@
         <v>6912</v>
       </c>
       <c r="S48" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T48" s="20" t="s">
         <v>122</v>
@@ -7094,7 +6561,7 @@
       </c>
       <c r="AD48" s="20"/>
     </row>
-    <row r="49" spans="2:30">
+    <row r="49" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B49" s="17">
         <v>20105</v>
       </c>
@@ -7143,7 +6610,7 @@
         <v>7776</v>
       </c>
       <c r="S49" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T49" s="20" t="s">
         <v>122</v>
@@ -7175,7 +6642,7 @@
       </c>
       <c r="AD49" s="20"/>
     </row>
-    <row r="50" spans="2:30">
+    <row r="50" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B50" s="17">
         <v>20106</v>
       </c>
@@ -7224,7 +6691,7 @@
         <v>8640</v>
       </c>
       <c r="S50" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T50" s="20" t="s">
         <v>122</v>
@@ -7256,7 +6723,7 @@
       </c>
       <c r="AD50" s="20"/>
     </row>
-    <row r="51" spans="2:30">
+    <row r="51" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B51" s="17">
         <v>20107</v>
       </c>
@@ -7305,7 +6772,7 @@
         <v>9504</v>
       </c>
       <c r="S51" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T51" s="20" t="s">
         <v>122</v>
@@ -7337,7 +6804,7 @@
       </c>
       <c r="AD51" s="20"/>
     </row>
-    <row r="52" spans="2:30">
+    <row r="52" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B52" s="17">
         <v>20108</v>
       </c>
@@ -7386,7 +6853,7 @@
         <v>10368</v>
       </c>
       <c r="S52" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T52" s="20" t="s">
         <v>122</v>
@@ -7418,7 +6885,7 @@
       </c>
       <c r="AD52" s="20"/>
     </row>
-    <row r="53" spans="2:30">
+    <row r="53" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B53" s="17">
         <v>20109</v>
       </c>
@@ -7467,7 +6934,7 @@
         <v>11232</v>
       </c>
       <c r="S53" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T53" s="20" t="s">
         <v>122</v>
@@ -7499,7 +6966,7 @@
       </c>
       <c r="AD53" s="20"/>
     </row>
-    <row r="54" spans="2:30">
+    <row r="54" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B54" s="17">
         <v>20110</v>
       </c>
@@ -7548,7 +7015,7 @@
         <v>12096</v>
       </c>
       <c r="S54" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T54" s="20" t="s">
         <v>122</v>
@@ -7580,7 +7047,7 @@
       </c>
       <c r="AD54" s="20"/>
     </row>
-    <row r="55" spans="2:30">
+    <row r="55" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B55" s="17">
         <v>20201</v>
       </c>
@@ -7631,7 +7098,7 @@
         <v>2880</v>
       </c>
       <c r="S55" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T55" s="20" t="s">
         <v>147</v>
@@ -7663,7 +7130,7 @@
       </c>
       <c r="AD55" s="20"/>
     </row>
-    <row r="56" spans="2:30">
+    <row r="56" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B56" s="17">
         <v>20202</v>
       </c>
@@ -7714,7 +7181,7 @@
         <v>3456</v>
       </c>
       <c r="S56" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T56" s="20" t="s">
         <v>147</v>
@@ -7746,7 +7213,7 @@
       </c>
       <c r="AD56" s="20"/>
     </row>
-    <row r="57" spans="2:30">
+    <row r="57" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B57" s="17">
         <v>20203</v>
       </c>
@@ -7797,7 +7264,7 @@
         <v>3600</v>
       </c>
       <c r="S57" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T57" s="20" t="s">
         <v>147</v>
@@ -7829,7 +7296,7 @@
       </c>
       <c r="AD57" s="20"/>
     </row>
-    <row r="58" spans="2:30">
+    <row r="58" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B58" s="17">
         <v>20204</v>
       </c>
@@ -7880,7 +7347,7 @@
         <v>4176</v>
       </c>
       <c r="S58" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T58" s="20" t="s">
         <v>147</v>
@@ -7912,7 +7379,7 @@
       </c>
       <c r="AD58" s="20"/>
     </row>
-    <row r="59" spans="2:30">
+    <row r="59" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B59" s="17">
         <v>20205</v>
       </c>
@@ -7963,7 +7430,7 @@
         <v>5184</v>
       </c>
       <c r="S59" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T59" s="20" t="s">
         <v>147</v>
@@ -7995,7 +7462,7 @@
       </c>
       <c r="AD59" s="20"/>
     </row>
-    <row r="60" spans="2:30">
+    <row r="60" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B60" s="17">
         <v>20206</v>
       </c>
@@ -8046,7 +7513,7 @@
         <v>5472</v>
       </c>
       <c r="S60" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T60" s="20" t="s">
         <v>147</v>
@@ -8078,7 +7545,7 @@
       </c>
       <c r="AD60" s="20"/>
     </row>
-    <row r="61" spans="2:30">
+    <row r="61" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B61" s="17">
         <v>20207</v>
       </c>
@@ -8129,7 +7596,7 @@
         <v>5904</v>
       </c>
       <c r="S61" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T61" s="20" t="s">
         <v>147</v>
@@ -8161,7 +7628,7 @@
       </c>
       <c r="AD61" s="20"/>
     </row>
-    <row r="62" spans="2:30">
+    <row r="62" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B62" s="17">
         <v>20208</v>
       </c>
@@ -8212,7 +7679,7 @@
         <v>6912</v>
       </c>
       <c r="S62" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T62" s="20" t="s">
         <v>147</v>
@@ -8244,7 +7711,7 @@
       </c>
       <c r="AD62" s="20"/>
     </row>
-    <row r="63" spans="2:30">
+    <row r="63" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B63" s="17">
         <v>20209</v>
       </c>
@@ -8295,7 +7762,7 @@
         <v>7200</v>
       </c>
       <c r="S63" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T63" s="20" t="s">
         <v>147</v>
@@ -8327,7 +7794,7 @@
       </c>
       <c r="AD63" s="20"/>
     </row>
-    <row r="64" spans="2:30">
+    <row r="64" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B64" s="17">
         <v>20210</v>
       </c>
@@ -8378,7 +7845,7 @@
         <v>7632</v>
       </c>
       <c r="S64" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T64" s="20" t="s">
         <v>147</v>
@@ -8410,7 +7877,7 @@
       </c>
       <c r="AD64" s="20"/>
     </row>
-    <row r="65" spans="2:30">
+    <row r="65" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B65" s="17">
         <v>20301</v>
       </c>
@@ -8460,7 +7927,7 @@
       </c>
       <c r="R65" s="20"/>
       <c r="S65" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T65" s="20" t="s">
         <v>179</v>
@@ -8492,7 +7959,7 @@
       </c>
       <c r="AD65" s="20"/>
     </row>
-    <row r="66" spans="2:30">
+    <row r="66" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B66" s="17">
         <v>20302</v>
       </c>
@@ -8542,7 +8009,7 @@
       </c>
       <c r="R66" s="20"/>
       <c r="S66" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T66" s="20" t="s">
         <v>179</v>
@@ -8574,7 +8041,7 @@
       </c>
       <c r="AD66" s="20"/>
     </row>
-    <row r="67" spans="2:30">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B67" s="17">
         <v>20303</v>
       </c>
@@ -8624,7 +8091,7 @@
       </c>
       <c r="R67" s="20"/>
       <c r="S67" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T67" s="20" t="s">
         <v>179</v>
@@ -8656,7 +8123,7 @@
       </c>
       <c r="AD67" s="20"/>
     </row>
-    <row r="68" spans="2:30">
+    <row r="68" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B68" s="17">
         <v>20304</v>
       </c>
@@ -8706,7 +8173,7 @@
       </c>
       <c r="R68" s="20"/>
       <c r="S68" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T68" s="20" t="s">
         <v>179</v>
@@ -8738,7 +8205,7 @@
       </c>
       <c r="AD68" s="20"/>
     </row>
-    <row r="69" spans="2:30">
+    <row r="69" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B69" s="17">
         <v>20305</v>
       </c>
@@ -8788,7 +8255,7 @@
       </c>
       <c r="R69" s="20"/>
       <c r="S69" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T69" s="20" t="s">
         <v>179</v>
@@ -8820,7 +8287,7 @@
       </c>
       <c r="AD69" s="20"/>
     </row>
-    <row r="70" spans="2:30">
+    <row r="70" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B70" s="17">
         <v>20306</v>
       </c>
@@ -8870,7 +8337,7 @@
       </c>
       <c r="R70" s="20"/>
       <c r="S70" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T70" s="20" t="s">
         <v>179</v>
@@ -8902,7 +8369,7 @@
       </c>
       <c r="AD70" s="20"/>
     </row>
-    <row r="71" spans="2:30">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B71" s="17">
         <v>20307</v>
       </c>
@@ -8952,7 +8419,7 @@
       </c>
       <c r="R71" s="20"/>
       <c r="S71" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T71" s="20" t="s">
         <v>179</v>
@@ -8984,7 +8451,7 @@
       </c>
       <c r="AD71" s="20"/>
     </row>
-    <row r="72" spans="2:30">
+    <row r="72" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B72" s="17">
         <v>20308</v>
       </c>
@@ -9034,7 +8501,7 @@
       </c>
       <c r="R72" s="20"/>
       <c r="S72" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T72" s="20" t="s">
         <v>179</v>
@@ -9066,7 +8533,7 @@
       </c>
       <c r="AD72" s="20"/>
     </row>
-    <row r="73" spans="2:30">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B73" s="17">
         <v>20309</v>
       </c>
@@ -9116,7 +8583,7 @@
       </c>
       <c r="R73" s="20"/>
       <c r="S73" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T73" s="20" t="s">
         <v>179</v>
@@ -9148,7 +8615,7 @@
       </c>
       <c r="AD73" s="20"/>
     </row>
-    <row r="74" spans="2:30">
+    <row r="74" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B74" s="17">
         <v>20310</v>
       </c>
@@ -9198,7 +8665,7 @@
       </c>
       <c r="R74" s="20"/>
       <c r="S74" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T74" s="20" t="s">
         <v>179</v>
@@ -9230,7 +8697,7 @@
       </c>
       <c r="AD74" s="20"/>
     </row>
-    <row r="75" spans="2:30">
+    <row r="75" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B75" s="17">
         <v>30101</v>
       </c>
@@ -9277,10 +8744,10 @@
       </c>
       <c r="Q75" s="20"/>
       <c r="R75" s="20">
-        <v>28080</v>
+        <v>21600</v>
       </c>
       <c r="S75" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T75" s="20" t="s">
         <v>198</v>
@@ -9312,7 +8779,7 @@
       </c>
       <c r="AD75" s="20"/>
     </row>
-    <row r="76" spans="2:30">
+    <row r="76" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B76" s="17">
         <v>30102</v>
       </c>
@@ -9359,10 +8826,10 @@
       </c>
       <c r="Q76" s="20"/>
       <c r="R76" s="20">
-        <v>33696</v>
+        <v>27504</v>
       </c>
       <c r="S76" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T76" s="20" t="s">
         <v>198</v>
@@ -9394,7 +8861,7 @@
       </c>
       <c r="AD76" s="20"/>
     </row>
-    <row r="77" spans="2:30">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B77" s="17">
         <v>30103</v>
       </c>
@@ -9441,10 +8908,10 @@
       </c>
       <c r="Q77" s="20"/>
       <c r="R77" s="20">
-        <v>39312</v>
+        <v>33264</v>
       </c>
       <c r="S77" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T77" s="20" t="s">
         <v>198</v>
@@ -9476,7 +8943,7 @@
       </c>
       <c r="AD77" s="20"/>
     </row>
-    <row r="78" spans="2:30">
+    <row r="78" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B78" s="17">
         <v>30104</v>
       </c>
@@ -9523,10 +8990,10 @@
       </c>
       <c r="Q78" s="20"/>
       <c r="R78" s="20">
-        <v>44928</v>
+        <v>38880</v>
       </c>
       <c r="S78" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T78" s="20" t="s">
         <v>198</v>
@@ -9558,7 +9025,7 @@
       </c>
       <c r="AD78" s="20"/>
     </row>
-    <row r="79" spans="2:30">
+    <row r="79" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B79" s="17">
         <v>30105</v>
       </c>
@@ -9605,10 +9072,10 @@
       </c>
       <c r="Q79" s="20"/>
       <c r="R79" s="20">
-        <v>50544</v>
+        <v>44640</v>
       </c>
       <c r="S79" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T79" s="20" t="s">
         <v>198</v>
@@ -9640,7 +9107,7 @@
       </c>
       <c r="AD79" s="20"/>
     </row>
-    <row r="80" spans="2:30">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B80" s="17">
         <v>30106</v>
       </c>
@@ -9687,10 +9154,10 @@
       </c>
       <c r="Q80" s="20"/>
       <c r="R80" s="20">
-        <v>56160</v>
+        <v>50544</v>
       </c>
       <c r="S80" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T80" s="20" t="s">
         <v>198</v>
@@ -9722,7 +9189,7 @@
       </c>
       <c r="AD80" s="20"/>
     </row>
-    <row r="81" spans="2:30">
+    <row r="81" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B81" s="17">
         <v>30107</v>
       </c>
@@ -9769,10 +9236,10 @@
       </c>
       <c r="Q81" s="20"/>
       <c r="R81" s="20">
-        <v>61776</v>
+        <v>56304</v>
       </c>
       <c r="S81" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T81" s="20" t="s">
         <v>198</v>
@@ -9804,7 +9271,7 @@
       </c>
       <c r="AD81" s="20"/>
     </row>
-    <row r="82" spans="2:30">
+    <row r="82" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B82" s="17">
         <v>30108</v>
       </c>
@@ -9851,10 +9318,10 @@
       </c>
       <c r="Q82" s="20"/>
       <c r="R82" s="20">
-        <v>67392</v>
+        <v>61920</v>
       </c>
       <c r="S82" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T82" s="20" t="s">
         <v>198</v>
@@ -9886,7 +9353,7 @@
       </c>
       <c r="AD82" s="20"/>
     </row>
-    <row r="83" spans="2:30">
+    <row r="83" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B83" s="17">
         <v>30109</v>
       </c>
@@ -9933,10 +9400,10 @@
       </c>
       <c r="Q83" s="20"/>
       <c r="R83" s="20">
-        <v>73008</v>
+        <v>67680</v>
       </c>
       <c r="S83" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T83" s="20" t="s">
         <v>198</v>
@@ -9968,7 +9435,7 @@
       </c>
       <c r="AD83" s="20"/>
     </row>
-    <row r="84" spans="2:30">
+    <row r="84" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B84" s="17">
         <v>30110</v>
       </c>
@@ -10015,10 +9482,10 @@
       </c>
       <c r="Q84" s="20"/>
       <c r="R84" s="20">
-        <v>78624</v>
+        <v>73584</v>
       </c>
       <c r="S84" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T84" s="20" t="s">
         <v>198</v>
@@ -10050,7 +9517,7 @@
       </c>
       <c r="AD84" s="20"/>
     </row>
-    <row r="85" spans="2:30">
+    <row r="85" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B85" s="17">
         <v>30201</v>
       </c>
@@ -10100,7 +9567,7 @@
         <v>21600</v>
       </c>
       <c r="S85" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T85" s="20" t="s">
         <v>211</v>
@@ -10132,7 +9599,7 @@
       </c>
       <c r="AD85" s="20"/>
     </row>
-    <row r="86" spans="2:30">
+    <row r="86" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B86" s="17">
         <v>30202</v>
       </c>
@@ -10182,7 +9649,7 @@
         <v>25920</v>
       </c>
       <c r="S86" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T86" s="20" t="s">
         <v>211</v>
@@ -10214,7 +9681,7 @@
       </c>
       <c r="AD86" s="20"/>
     </row>
-    <row r="87" spans="2:30">
+    <row r="87" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B87" s="17">
         <v>30203</v>
       </c>
@@ -10264,7 +9731,7 @@
         <v>30240</v>
       </c>
       <c r="S87" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T87" s="20" t="s">
         <v>211</v>
@@ -10296,7 +9763,7 @@
       </c>
       <c r="AD87" s="20"/>
     </row>
-    <row r="88" spans="2:30">
+    <row r="88" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B88" s="17">
         <v>30204</v>
       </c>
@@ -10346,7 +9813,7 @@
         <v>34560</v>
       </c>
       <c r="S88" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T88" s="20" t="s">
         <v>211</v>
@@ -10378,7 +9845,7 @@
       </c>
       <c r="AD88" s="20"/>
     </row>
-    <row r="89" spans="2:30">
+    <row r="89" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B89" s="17">
         <v>30205</v>
       </c>
@@ -10428,7 +9895,7 @@
         <v>38880</v>
       </c>
       <c r="S89" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T89" s="20" t="s">
         <v>211</v>
@@ -10460,7 +9927,7 @@
       </c>
       <c r="AD89" s="20"/>
     </row>
-    <row r="90" spans="2:30">
+    <row r="90" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B90" s="17">
         <v>30206</v>
       </c>
@@ -10510,7 +9977,7 @@
         <v>43200</v>
       </c>
       <c r="S90" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T90" s="20" t="s">
         <v>211</v>
@@ -10542,7 +10009,7 @@
       </c>
       <c r="AD90" s="20"/>
     </row>
-    <row r="91" spans="2:30">
+    <row r="91" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B91" s="17">
         <v>30207</v>
       </c>
@@ -10592,7 +10059,7 @@
         <v>47520</v>
       </c>
       <c r="S91" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T91" s="20" t="s">
         <v>211</v>
@@ -10624,7 +10091,7 @@
       </c>
       <c r="AD91" s="20"/>
     </row>
-    <row r="92" spans="2:30">
+    <row r="92" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B92" s="17">
         <v>30208</v>
       </c>
@@ -10674,7 +10141,7 @@
         <v>51840</v>
       </c>
       <c r="S92" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T92" s="20" t="s">
         <v>211</v>
@@ -10706,7 +10173,7 @@
       </c>
       <c r="AD92" s="20"/>
     </row>
-    <row r="93" spans="2:30">
+    <row r="93" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B93" s="17">
         <v>30209</v>
       </c>
@@ -10756,7 +10223,7 @@
         <v>56160</v>
       </c>
       <c r="S93" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T93" s="20" t="s">
         <v>211</v>
@@ -10788,7 +10255,7 @@
       </c>
       <c r="AD93" s="20"/>
     </row>
-    <row r="94" spans="2:30">
+    <row r="94" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B94" s="17">
         <v>30210</v>
       </c>
@@ -10838,7 +10305,7 @@
         <v>60480</v>
       </c>
       <c r="S94" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T94" s="20" t="s">
         <v>211</v>
@@ -10870,7 +10337,7 @@
       </c>
       <c r="AD94" s="20"/>
     </row>
-    <row r="95" spans="2:30">
+    <row r="95" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B95" s="17">
         <v>30301</v>
       </c>
@@ -10920,7 +10387,7 @@
         <v>12960</v>
       </c>
       <c r="S95" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T95" s="20" t="s">
         <v>224</v>
@@ -10952,7 +10419,7 @@
       </c>
       <c r="AD95" s="20"/>
     </row>
-    <row r="96" spans="2:30">
+    <row r="96" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B96" s="17">
         <v>30302</v>
       </c>
@@ -11002,7 +10469,7 @@
         <v>15552</v>
       </c>
       <c r="S96" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T96" s="20" t="s">
         <v>224</v>
@@ -11034,7 +10501,7 @@
       </c>
       <c r="AD96" s="20"/>
     </row>
-    <row r="97" spans="2:30">
+    <row r="97" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B97" s="17">
         <v>30303</v>
       </c>
@@ -11084,7 +10551,7 @@
         <v>18144</v>
       </c>
       <c r="S97" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T97" s="20" t="s">
         <v>224</v>
@@ -11116,7 +10583,7 @@
       </c>
       <c r="AD97" s="20"/>
     </row>
-    <row r="98" spans="2:30">
+    <row r="98" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B98" s="17">
         <v>30304</v>
       </c>
@@ -11166,7 +10633,7 @@
         <v>20736</v>
       </c>
       <c r="S98" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T98" s="20" t="s">
         <v>224</v>
@@ -11198,7 +10665,7 @@
       </c>
       <c r="AD98" s="20"/>
     </row>
-    <row r="99" spans="2:30">
+    <row r="99" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B99" s="17">
         <v>30305</v>
       </c>
@@ -11248,7 +10715,7 @@
         <v>23328</v>
       </c>
       <c r="S99" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T99" s="20" t="s">
         <v>224</v>
@@ -11280,7 +10747,7 @@
       </c>
       <c r="AD99" s="20"/>
     </row>
-    <row r="100" spans="2:30">
+    <row r="100" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B100" s="17">
         <v>30306</v>
       </c>
@@ -11330,7 +10797,7 @@
         <v>25920</v>
       </c>
       <c r="S100" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T100" s="20" t="s">
         <v>224</v>
@@ -11362,7 +10829,7 @@
       </c>
       <c r="AD100" s="20"/>
     </row>
-    <row r="101" spans="2:30">
+    <row r="101" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B101" s="17">
         <v>30307</v>
       </c>
@@ -11412,7 +10879,7 @@
         <v>28512</v>
       </c>
       <c r="S101" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T101" s="20" t="s">
         <v>224</v>
@@ -11444,7 +10911,7 @@
       </c>
       <c r="AD101" s="20"/>
     </row>
-    <row r="102" spans="2:30">
+    <row r="102" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B102" s="17">
         <v>30308</v>
       </c>
@@ -11494,7 +10961,7 @@
         <v>31104</v>
       </c>
       <c r="S102" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T102" s="20" t="s">
         <v>224</v>
@@ -11526,7 +10993,7 @@
       </c>
       <c r="AD102" s="20"/>
     </row>
-    <row r="103" spans="2:30">
+    <row r="103" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B103" s="17">
         <v>30309</v>
       </c>
@@ -11576,7 +11043,7 @@
         <v>33696</v>
       </c>
       <c r="S103" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T103" s="20" t="s">
         <v>224</v>
@@ -11608,7 +11075,7 @@
       </c>
       <c r="AD103" s="20"/>
     </row>
-    <row r="104" spans="2:30">
+    <row r="104" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B104" s="17">
         <v>30310</v>
       </c>
@@ -11658,7 +11125,7 @@
         <v>36288</v>
       </c>
       <c r="S104" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T104" s="20" t="s">
         <v>224</v>
@@ -11690,7 +11157,7 @@
       </c>
       <c r="AD104" s="20"/>
     </row>
-    <row r="105" spans="2:30">
+    <row r="105" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B105" s="17">
         <v>30401</v>
       </c>
@@ -11737,10 +11204,10 @@
       </c>
       <c r="Q105" s="20"/>
       <c r="R105" s="20">
-        <v>21600</v>
+        <v>25056</v>
       </c>
       <c r="S105" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T105" s="20" t="s">
         <v>237</v>
@@ -11772,7 +11239,7 @@
       </c>
       <c r="AD105" s="20"/>
     </row>
-    <row r="106" spans="2:30">
+    <row r="106" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B106" s="17">
         <v>30402</v>
       </c>
@@ -11819,10 +11286,10 @@
       </c>
       <c r="Q106" s="20"/>
       <c r="R106" s="20">
-        <v>25920</v>
+        <v>31824</v>
       </c>
       <c r="S106" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T106" s="20" t="s">
         <v>237</v>
@@ -11854,7 +11321,7 @@
       </c>
       <c r="AD106" s="20"/>
     </row>
-    <row r="107" spans="2:30">
+    <row r="107" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B107" s="17">
         <v>30403</v>
       </c>
@@ -11901,10 +11368,10 @@
       </c>
       <c r="Q107" s="20"/>
       <c r="R107" s="20">
-        <v>30240</v>
+        <v>38592</v>
       </c>
       <c r="S107" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T107" s="20" t="s">
         <v>237</v>
@@ -11936,7 +11403,7 @@
       </c>
       <c r="AD107" s="20"/>
     </row>
-    <row r="108" spans="2:30">
+    <row r="108" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B108" s="17">
         <v>30404</v>
       </c>
@@ -11983,10 +11450,10 @@
       </c>
       <c r="Q108" s="20"/>
       <c r="R108" s="20">
-        <v>34560</v>
+        <v>45360</v>
       </c>
       <c r="S108" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T108" s="20" t="s">
         <v>237</v>
@@ -12018,7 +11485,7 @@
       </c>
       <c r="AD108" s="20"/>
     </row>
-    <row r="109" spans="2:30">
+    <row r="109" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B109" s="17">
         <v>30405</v>
       </c>
@@ -12065,10 +11532,10 @@
       </c>
       <c r="Q109" s="20"/>
       <c r="R109" s="20">
-        <v>38880</v>
+        <v>51984</v>
       </c>
       <c r="S109" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T109" s="20" t="s">
         <v>237</v>
@@ -12100,7 +11567,7 @@
       </c>
       <c r="AD109" s="20"/>
     </row>
-    <row r="110" spans="2:30">
+    <row r="110" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B110" s="17">
         <v>30406</v>
       </c>
@@ -12147,10 +11614,10 @@
       </c>
       <c r="Q110" s="20"/>
       <c r="R110" s="20">
-        <v>43200</v>
+        <v>58896</v>
       </c>
       <c r="S110" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T110" s="20" t="s">
         <v>237</v>
@@ -12182,7 +11649,7 @@
       </c>
       <c r="AD110" s="20"/>
     </row>
-    <row r="111" spans="2:30">
+    <row r="111" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B111" s="17">
         <v>30407</v>
       </c>
@@ -12229,10 +11696,10 @@
       </c>
       <c r="Q111" s="20"/>
       <c r="R111" s="20">
-        <v>47520</v>
+        <v>65520</v>
       </c>
       <c r="S111" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T111" s="20" t="s">
         <v>237</v>
@@ -12264,7 +11731,7 @@
       </c>
       <c r="AD111" s="20"/>
     </row>
-    <row r="112" spans="2:30">
+    <row r="112" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B112" s="17">
         <v>30408</v>
       </c>
@@ -12311,10 +11778,10 @@
       </c>
       <c r="Q112" s="20"/>
       <c r="R112" s="20">
-        <v>51840</v>
+        <v>72288</v>
       </c>
       <c r="S112" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T112" s="20" t="s">
         <v>237</v>
@@ -12346,7 +11813,7 @@
       </c>
       <c r="AD112" s="20"/>
     </row>
-    <row r="113" spans="2:30">
+    <row r="113" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B113" s="17">
         <v>30409</v>
       </c>
@@ -12393,10 +11860,10 @@
       </c>
       <c r="Q113" s="20"/>
       <c r="R113" s="20">
-        <v>56160</v>
+        <v>79056</v>
       </c>
       <c r="S113" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T113" s="20" t="s">
         <v>237</v>
@@ -12428,7 +11895,7 @@
       </c>
       <c r="AD113" s="20"/>
     </row>
-    <row r="114" spans="2:30">
+    <row r="114" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B114" s="17">
         <v>30410</v>
       </c>
@@ -12475,10 +11942,10 @@
       </c>
       <c r="Q114" s="20"/>
       <c r="R114" s="20">
-        <v>60480</v>
+        <v>85824</v>
       </c>
       <c r="S114" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T114" s="20" t="s">
         <v>237</v>
@@ -12510,7 +11977,7 @@
       </c>
       <c r="AD114" s="20"/>
     </row>
-    <row r="115" spans="2:30">
+    <row r="115" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B115" s="17">
         <v>40101</v>
       </c>
@@ -12547,10 +12014,10 @@
         <v>401</v>
       </c>
       <c r="N115" s="17">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O115" s="17">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="P115" s="20" t="s">
         <v>250</v>
@@ -12559,10 +12026,10 @@
         <v>251</v>
       </c>
       <c r="R115" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S115" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T115" s="20" t="s">
         <v>252</v>
@@ -12593,10 +12060,10 @@
         <v>2</v>
       </c>
       <c r="AD115" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B116" s="17">
         <v>40102</v>
       </c>
@@ -12633,10 +12100,10 @@
         <v>401</v>
       </c>
       <c r="N116" s="17">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="O116" s="17">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="P116" s="20" t="s">
         <v>250</v>
@@ -12645,10 +12112,10 @@
         <v>251</v>
       </c>
       <c r="R116" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S116" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T116" s="20" t="s">
         <v>252</v>
@@ -12679,10 +12146,10 @@
         <v>4</v>
       </c>
       <c r="AD116" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B117" s="17">
         <v>40103</v>
       </c>
@@ -12719,10 +12186,10 @@
         <v>401</v>
       </c>
       <c r="N117" s="17">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="O117" s="17">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="P117" s="20" t="s">
         <v>250</v>
@@ -12731,10 +12198,10 @@
         <v>251</v>
       </c>
       <c r="R117" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S117" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T117" s="20" t="s">
         <v>252</v>
@@ -12765,10 +12232,10 @@
         <v>6</v>
       </c>
       <c r="AD117" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B118" s="17">
         <v>40104</v>
       </c>
@@ -12805,10 +12272,10 @@
         <v>401</v>
       </c>
       <c r="N118" s="17">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="O118" s="17">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P118" s="20" t="s">
         <v>250</v>
@@ -12817,10 +12284,10 @@
         <v>251</v>
       </c>
       <c r="R118" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S118" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T118" s="20" t="s">
         <v>252</v>
@@ -12851,10 +12318,10 @@
         <v>8</v>
       </c>
       <c r="AD118" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B119" s="17">
         <v>40105</v>
       </c>
@@ -12891,10 +12358,10 @@
         <v>401</v>
       </c>
       <c r="N119" s="17">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="O119" s="17">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="P119" s="20" t="s">
         <v>250</v>
@@ -12903,10 +12370,10 @@
         <v>251</v>
       </c>
       <c r="R119" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S119" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T119" s="20" t="s">
         <v>252</v>
@@ -12937,10 +12404,10 @@
         <v>10</v>
       </c>
       <c r="AD119" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B120" s="17">
         <v>40106</v>
       </c>
@@ -12977,10 +12444,10 @@
         <v>401</v>
       </c>
       <c r="N120" s="17">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O120" s="17">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="P120" s="20" t="s">
         <v>250</v>
@@ -12989,10 +12456,10 @@
         <v>251</v>
       </c>
       <c r="R120" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S120" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T120" s="20" t="s">
         <v>252</v>
@@ -13023,10 +12490,10 @@
         <v>12</v>
       </c>
       <c r="AD120" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B121" s="17">
         <v>40107</v>
       </c>
@@ -13063,10 +12530,10 @@
         <v>401</v>
       </c>
       <c r="N121" s="17">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O121" s="17">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="P121" s="20" t="s">
         <v>250</v>
@@ -13075,10 +12542,10 @@
         <v>251</v>
       </c>
       <c r="R121" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S121" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T121" s="20" t="s">
         <v>252</v>
@@ -13109,10 +12576,10 @@
         <v>14</v>
       </c>
       <c r="AD121" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B122" s="17">
         <v>40108</v>
       </c>
@@ -13149,10 +12616,10 @@
         <v>401</v>
       </c>
       <c r="N122" s="17">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="O122" s="17">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="P122" s="20" t="s">
         <v>250</v>
@@ -13161,10 +12628,10 @@
         <v>251</v>
       </c>
       <c r="R122" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S122" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T122" s="20" t="s">
         <v>252</v>
@@ -13195,10 +12662,10 @@
         <v>16</v>
       </c>
       <c r="AD122" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B123" s="17">
         <v>40109</v>
       </c>
@@ -13235,10 +12702,10 @@
         <v>401</v>
       </c>
       <c r="N123" s="17">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O123" s="17">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="P123" s="20" t="s">
         <v>250</v>
@@ -13247,10 +12714,10 @@
         <v>251</v>
       </c>
       <c r="R123" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S123" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T123" s="20" t="s">
         <v>252</v>
@@ -13281,10 +12748,10 @@
         <v>18</v>
       </c>
       <c r="AD123" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B124" s="17">
         <v>40110</v>
       </c>
@@ -13321,10 +12788,10 @@
         <v>401</v>
       </c>
       <c r="N124" s="17">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O124" s="17">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="P124" s="20" t="s">
         <v>250</v>
@@ -13333,10 +12800,10 @@
         <v>251</v>
       </c>
       <c r="R124" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S124" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T124" s="20" t="s">
         <v>252</v>
@@ -13367,10 +12834,10 @@
         <v>20</v>
       </c>
       <c r="AD124" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B125" s="17">
         <v>40201</v>
       </c>
@@ -13407,10 +12874,10 @@
         <v>402</v>
       </c>
       <c r="N125" s="17">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O125" s="17">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="P125" s="20" t="s">
         <v>266</v>
@@ -13419,10 +12886,10 @@
         <v>267</v>
       </c>
       <c r="R125" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S125" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T125" s="20" t="s">
         <v>268</v>
@@ -13453,10 +12920,10 @@
         <v>2</v>
       </c>
       <c r="AD125" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B126" s="17">
         <v>40202</v>
       </c>
@@ -13493,10 +12960,10 @@
         <v>402</v>
       </c>
       <c r="N126" s="17">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="O126" s="17">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="P126" s="20" t="s">
         <v>266</v>
@@ -13505,10 +12972,10 @@
         <v>267</v>
       </c>
       <c r="R126" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S126" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T126" s="20" t="s">
         <v>268</v>
@@ -13539,10 +13006,10 @@
         <v>4</v>
       </c>
       <c r="AD126" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B127" s="17">
         <v>40203</v>
       </c>
@@ -13579,10 +13046,10 @@
         <v>402</v>
       </c>
       <c r="N127" s="17">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O127" s="17">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="P127" s="20" t="s">
         <v>266</v>
@@ -13591,10 +13058,10 @@
         <v>267</v>
       </c>
       <c r="R127" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S127" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T127" s="20" t="s">
         <v>268</v>
@@ -13625,10 +13092,10 @@
         <v>6</v>
       </c>
       <c r="AD127" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B128" s="17">
         <v>40204</v>
       </c>
@@ -13668,7 +13135,7 @@
         <v>40</v>
       </c>
       <c r="O128" s="17">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="P128" s="20" t="s">
         <v>266</v>
@@ -13677,10 +13144,10 @@
         <v>267</v>
       </c>
       <c r="R128" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S128" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T128" s="20" t="s">
         <v>268</v>
@@ -13711,10 +13178,10 @@
         <v>8</v>
       </c>
       <c r="AD128" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B129" s="17">
         <v>40205</v>
       </c>
@@ -13751,10 +13218,10 @@
         <v>402</v>
       </c>
       <c r="N129" s="17">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O129" s="17">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="P129" s="20" t="s">
         <v>266</v>
@@ -13763,10 +13230,10 @@
         <v>267</v>
       </c>
       <c r="R129" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S129" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T129" s="20" t="s">
         <v>268</v>
@@ -13797,10 +13264,10 @@
         <v>10</v>
       </c>
       <c r="AD129" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B130" s="17">
         <v>40206</v>
       </c>
@@ -13837,10 +13304,10 @@
         <v>402</v>
       </c>
       <c r="N130" s="17">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="O130" s="17">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="P130" s="20" t="s">
         <v>266</v>
@@ -13849,10 +13316,10 @@
         <v>267</v>
       </c>
       <c r="R130" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S130" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T130" s="20" t="s">
         <v>268</v>
@@ -13883,10 +13350,10 @@
         <v>12</v>
       </c>
       <c r="AD130" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B131" s="17">
         <v>40207</v>
       </c>
@@ -13923,10 +13390,10 @@
         <v>402</v>
       </c>
       <c r="N131" s="17">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="O131" s="17">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="P131" s="20" t="s">
         <v>266</v>
@@ -13935,10 +13402,10 @@
         <v>267</v>
       </c>
       <c r="R131" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S131" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T131" s="20" t="s">
         <v>268</v>
@@ -13969,10 +13436,10 @@
         <v>14</v>
       </c>
       <c r="AD131" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B132" s="17">
         <v>40208</v>
       </c>
@@ -14009,10 +13476,10 @@
         <v>402</v>
       </c>
       <c r="N132" s="17">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="O132" s="17">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="P132" s="20" t="s">
         <v>266</v>
@@ -14021,10 +13488,10 @@
         <v>267</v>
       </c>
       <c r="R132" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S132" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T132" s="20" t="s">
         <v>268</v>
@@ -14055,10 +13522,10 @@
         <v>16</v>
       </c>
       <c r="AD132" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B133" s="17">
         <v>40209</v>
       </c>
@@ -14095,10 +13562,10 @@
         <v>402</v>
       </c>
       <c r="N133" s="17">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="O133" s="17">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="P133" s="20" t="s">
         <v>266</v>
@@ -14107,10 +13574,10 @@
         <v>267</v>
       </c>
       <c r="R133" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S133" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T133" s="20" t="s">
         <v>268</v>
@@ -14141,10 +13608,10 @@
         <v>18</v>
       </c>
       <c r="AD133" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B134" s="17">
         <v>40210</v>
       </c>
@@ -14181,10 +13648,10 @@
         <v>402</v>
       </c>
       <c r="N134" s="17">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O134" s="17">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="P134" s="20" t="s">
         <v>266</v>
@@ -14193,10 +13660,10 @@
         <v>267</v>
       </c>
       <c r="R134" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S134" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T134" s="20" t="s">
         <v>268</v>
@@ -14227,10 +13694,10 @@
         <v>20</v>
       </c>
       <c r="AD134" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B135" s="17">
         <v>40301</v>
       </c>
@@ -14267,10 +13734,10 @@
         <v>403</v>
       </c>
       <c r="N135" s="17">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O135" s="17">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="P135" s="20" t="s">
         <v>272</v>
@@ -14279,10 +13746,10 @@
         <v>273</v>
       </c>
       <c r="R135" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S135" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T135" s="20" t="s">
         <v>274</v>
@@ -14313,10 +13780,10 @@
         <v>2</v>
       </c>
       <c r="AD135" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B136" s="17">
         <v>40302</v>
       </c>
@@ -14353,10 +13820,10 @@
         <v>403</v>
       </c>
       <c r="N136" s="17">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="O136" s="17">
-        <v>26</v>
+        <v>284</v>
       </c>
       <c r="P136" s="20" t="s">
         <v>272</v>
@@ -14365,10 +13832,10 @@
         <v>273</v>
       </c>
       <c r="R136" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S136" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T136" s="20" t="s">
         <v>274</v>
@@ -14399,10 +13866,10 @@
         <v>4</v>
       </c>
       <c r="AD136" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B137" s="17">
         <v>40303</v>
       </c>
@@ -14439,10 +13906,10 @@
         <v>403</v>
       </c>
       <c r="N137" s="17">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="O137" s="17">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="P137" s="20" t="s">
         <v>272</v>
@@ -14451,10 +13918,10 @@
         <v>273</v>
       </c>
       <c r="R137" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S137" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T137" s="20" t="s">
         <v>274</v>
@@ -14485,10 +13952,10 @@
         <v>6</v>
       </c>
       <c r="AD137" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B138" s="17">
         <v>40304</v>
       </c>
@@ -14525,10 +13992,10 @@
         <v>403</v>
       </c>
       <c r="N138" s="17">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="O138" s="17">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="P138" s="20" t="s">
         <v>272</v>
@@ -14537,10 +14004,10 @@
         <v>273</v>
       </c>
       <c r="R138" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S138" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T138" s="20" t="s">
         <v>274</v>
@@ -14571,10 +14038,10 @@
         <v>8</v>
       </c>
       <c r="AD138" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B139" s="17">
         <v>40305</v>
       </c>
@@ -14611,10 +14078,10 @@
         <v>403</v>
       </c>
       <c r="N139" s="17">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="O139" s="17">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="P139" s="20" t="s">
         <v>272</v>
@@ -14623,10 +14090,10 @@
         <v>273</v>
       </c>
       <c r="R139" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S139" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T139" s="20" t="s">
         <v>274</v>
@@ -14657,10 +14124,10 @@
         <v>10</v>
       </c>
       <c r="AD139" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B140" s="17">
         <v>40306</v>
       </c>
@@ -14697,10 +14164,10 @@
         <v>403</v>
       </c>
       <c r="N140" s="17">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O140" s="17">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="P140" s="20" t="s">
         <v>272</v>
@@ -14709,10 +14176,10 @@
         <v>273</v>
       </c>
       <c r="R140" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S140" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T140" s="20" t="s">
         <v>274</v>
@@ -14743,10 +14210,10 @@
         <v>12</v>
       </c>
       <c r="AD140" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B141" s="17">
         <v>40307</v>
       </c>
@@ -14783,10 +14250,10 @@
         <v>403</v>
       </c>
       <c r="N141" s="17">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O141" s="17">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="P141" s="20" t="s">
         <v>272</v>
@@ -14795,10 +14262,10 @@
         <v>273</v>
       </c>
       <c r="R141" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S141" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T141" s="20" t="s">
         <v>274</v>
@@ -14829,10 +14296,10 @@
         <v>14</v>
       </c>
       <c r="AD141" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B142" s="17">
         <v>40308</v>
       </c>
@@ -14869,10 +14336,10 @@
         <v>403</v>
       </c>
       <c r="N142" s="17">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="O142" s="17">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="P142" s="20" t="s">
         <v>272</v>
@@ -14881,10 +14348,10 @@
         <v>273</v>
       </c>
       <c r="R142" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S142" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T142" s="20" t="s">
         <v>274</v>
@@ -14915,10 +14382,10 @@
         <v>16</v>
       </c>
       <c r="AD142" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B143" s="17">
         <v>40309</v>
       </c>
@@ -14955,10 +14422,10 @@
         <v>403</v>
       </c>
       <c r="N143" s="17">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O143" s="17">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="P143" s="20" t="s">
         <v>272</v>
@@ -14967,10 +14434,10 @@
         <v>273</v>
       </c>
       <c r="R143" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S143" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T143" s="20" t="s">
         <v>274</v>
@@ -15001,10 +14468,10 @@
         <v>18</v>
       </c>
       <c r="AD143" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B144" s="17">
         <v>40310</v>
       </c>
@@ -15041,10 +14508,10 @@
         <v>403</v>
       </c>
       <c r="N144" s="17">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O144" s="17">
-        <v>8</v>
+        <v>197</v>
       </c>
       <c r="P144" s="20" t="s">
         <v>272</v>
@@ -15053,10 +14520,10 @@
         <v>273</v>
       </c>
       <c r="R144" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S144" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T144" s="20" t="s">
         <v>274</v>
@@ -15087,10 +14554,10 @@
         <v>20</v>
       </c>
       <c r="AD144" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B145" s="17">
         <v>40401</v>
       </c>
@@ -15127,10 +14594,10 @@
         <v>404</v>
       </c>
       <c r="N145" s="17">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="O145" s="17">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="P145" s="20" t="s">
         <v>277</v>
@@ -15139,10 +14606,10 @@
         <v>278</v>
       </c>
       <c r="R145" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S145" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T145" s="20" t="s">
         <v>279</v>
@@ -15173,10 +14640,10 @@
         <v>2</v>
       </c>
       <c r="AD145" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B146" s="17">
         <v>40402</v>
       </c>
@@ -15213,10 +14680,10 @@
         <v>404</v>
       </c>
       <c r="N146" s="17">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O146" s="17">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="P146" s="20" t="s">
         <v>277</v>
@@ -15225,10 +14692,10 @@
         <v>278</v>
       </c>
       <c r="R146" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S146" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T146" s="20" t="s">
         <v>279</v>
@@ -15259,10 +14726,10 @@
         <v>4</v>
       </c>
       <c r="AD146" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="147" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B147" s="17">
         <v>40403</v>
       </c>
@@ -15299,10 +14766,10 @@
         <v>404</v>
       </c>
       <c r="N147" s="17">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O147" s="17">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="P147" s="20" t="s">
         <v>277</v>
@@ -15311,10 +14778,10 @@
         <v>278</v>
       </c>
       <c r="R147" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S147" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T147" s="20" t="s">
         <v>279</v>
@@ -15345,10 +14812,10 @@
         <v>6</v>
       </c>
       <c r="AD147" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B148" s="17">
         <v>40404</v>
       </c>
@@ -15385,10 +14852,10 @@
         <v>404</v>
       </c>
       <c r="N148" s="17">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O148" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="P148" s="20" t="s">
         <v>277</v>
@@ -15397,10 +14864,10 @@
         <v>278</v>
       </c>
       <c r="R148" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S148" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T148" s="20" t="s">
         <v>279</v>
@@ -15431,10 +14898,10 @@
         <v>8</v>
       </c>
       <c r="AD148" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B149" s="17">
         <v>40405</v>
       </c>
@@ -15471,10 +14938,10 @@
         <v>404</v>
       </c>
       <c r="N149" s="17">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="O149" s="17">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="P149" s="20" t="s">
         <v>277</v>
@@ -15483,10 +14950,10 @@
         <v>278</v>
       </c>
       <c r="R149" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S149" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T149" s="20" t="s">
         <v>279</v>
@@ -15517,10 +14984,10 @@
         <v>10</v>
       </c>
       <c r="AD149" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B150" s="17">
         <v>40406</v>
       </c>
@@ -15557,10 +15024,10 @@
         <v>404</v>
       </c>
       <c r="N150" s="17">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="O150" s="17">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="P150" s="20" t="s">
         <v>277</v>
@@ -15569,10 +15036,10 @@
         <v>278</v>
       </c>
       <c r="R150" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S150" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T150" s="20" t="s">
         <v>279</v>
@@ -15603,10 +15070,10 @@
         <v>12</v>
       </c>
       <c r="AD150" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B151" s="17">
         <v>40407</v>
       </c>
@@ -15643,10 +15110,10 @@
         <v>404</v>
       </c>
       <c r="N151" s="17">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="O151" s="17">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="P151" s="20" t="s">
         <v>277</v>
@@ -15655,10 +15122,10 @@
         <v>278</v>
       </c>
       <c r="R151" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S151" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T151" s="20" t="s">
         <v>279</v>
@@ -15689,10 +15156,10 @@
         <v>14</v>
       </c>
       <c r="AD151" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B152" s="17">
         <v>40408</v>
       </c>
@@ -15729,10 +15196,10 @@
         <v>404</v>
       </c>
       <c r="N152" s="17">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="O152" s="17">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="P152" s="20" t="s">
         <v>277</v>
@@ -15741,10 +15208,10 @@
         <v>278</v>
       </c>
       <c r="R152" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S152" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T152" s="20" t="s">
         <v>279</v>
@@ -15775,10 +15242,10 @@
         <v>16</v>
       </c>
       <c r="AD152" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B153" s="17">
         <v>40409</v>
       </c>
@@ -15815,10 +15282,10 @@
         <v>404</v>
       </c>
       <c r="N153" s="17">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="O153" s="17">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="P153" s="20" t="s">
         <v>277</v>
@@ -15827,10 +15294,10 @@
         <v>278</v>
       </c>
       <c r="R153" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S153" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T153" s="20" t="s">
         <v>279</v>
@@ -15861,10 +15328,10 @@
         <v>18</v>
       </c>
       <c r="AD153" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B154" s="17">
         <v>40410</v>
       </c>
@@ -15901,10 +15368,10 @@
         <v>404</v>
       </c>
       <c r="N154" s="17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O154" s="17">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="P154" s="20" t="s">
         <v>277</v>
@@ -15913,10 +15380,10 @@
         <v>278</v>
       </c>
       <c r="R154" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S154" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T154" s="20" t="s">
         <v>279</v>
@@ -15947,10 +15414,10 @@
         <v>20</v>
       </c>
       <c r="AD154" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B155" s="17">
         <v>40501</v>
       </c>
@@ -15987,10 +15454,10 @@
         <v>405</v>
       </c>
       <c r="N155" s="17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O155" s="17">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="P155" s="20" t="s">
         <v>282</v>
@@ -15999,10 +15466,10 @@
         <v>283</v>
       </c>
       <c r="R155" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S155" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T155" s="20" t="s">
         <v>284</v>
@@ -16033,10 +15500,10 @@
         <v>2</v>
       </c>
       <c r="AD155" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" spans="2:30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B156" s="17">
         <v>40502</v>
       </c>
@@ -16073,10 +15540,10 @@
         <v>405</v>
       </c>
       <c r="N156" s="17">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O156" s="17">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="P156" s="20" t="s">
         <v>282</v>
@@ -16085,10 +15552,10 @@
         <v>283</v>
       </c>
       <c r="R156" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S156" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T156" s="20" t="s">
         <v>284</v>
@@ -16119,10 +15586,10 @@
         <v>4</v>
       </c>
       <c r="AD156" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="2:30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B157" s="17">
         <v>40503</v>
       </c>
@@ -16159,10 +15626,10 @@
         <v>405</v>
       </c>
       <c r="N157" s="17">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O157" s="17">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="P157" s="20" t="s">
         <v>282</v>
@@ -16171,10 +15638,10 @@
         <v>283</v>
       </c>
       <c r="R157" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S157" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T157" s="20" t="s">
         <v>284</v>
@@ -16205,10 +15672,10 @@
         <v>6</v>
       </c>
       <c r="AD157" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" spans="2:30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B158" s="17">
         <v>40504</v>
       </c>
@@ -16245,10 +15712,10 @@
         <v>405</v>
       </c>
       <c r="N158" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O158" s="17">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="P158" s="20" t="s">
         <v>282</v>
@@ -16257,10 +15724,10 @@
         <v>283</v>
       </c>
       <c r="R158" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S158" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T158" s="20" t="s">
         <v>284</v>
@@ -16291,10 +15758,10 @@
         <v>8</v>
       </c>
       <c r="AD158" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="2:30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B159" s="17">
         <v>40505</v>
       </c>
@@ -16331,10 +15798,10 @@
         <v>405</v>
       </c>
       <c r="N159" s="17">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="O159" s="17">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="P159" s="20" t="s">
         <v>282</v>
@@ -16343,10 +15810,10 @@
         <v>283</v>
       </c>
       <c r="R159" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S159" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T159" s="20" t="s">
         <v>284</v>
@@ -16377,10 +15844,10 @@
         <v>10</v>
       </c>
       <c r="AD159" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" spans="2:30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B160" s="17">
         <v>40506</v>
       </c>
@@ -16417,10 +15884,10 @@
         <v>405</v>
       </c>
       <c r="N160" s="17">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="O160" s="17">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="P160" s="20" t="s">
         <v>282</v>
@@ -16429,10 +15896,10 @@
         <v>283</v>
       </c>
       <c r="R160" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S160" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T160" s="20" t="s">
         <v>284</v>
@@ -16463,10 +15930,10 @@
         <v>12</v>
       </c>
       <c r="AD160" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="161" spans="2:30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B161" s="17">
         <v>40507</v>
       </c>
@@ -16503,10 +15970,10 @@
         <v>405</v>
       </c>
       <c r="N161" s="17">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="O161" s="17">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="P161" s="20" t="s">
         <v>282</v>
@@ -16515,10 +15982,10 @@
         <v>283</v>
       </c>
       <c r="R161" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S161" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T161" s="20" t="s">
         <v>284</v>
@@ -16549,10 +16016,10 @@
         <v>14</v>
       </c>
       <c r="AD161" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" spans="2:30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B162" s="17">
         <v>40508</v>
       </c>
@@ -16589,10 +16056,10 @@
         <v>405</v>
       </c>
       <c r="N162" s="17">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="O162" s="17">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="P162" s="20" t="s">
         <v>282</v>
@@ -16601,10 +16068,10 @@
         <v>283</v>
       </c>
       <c r="R162" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S162" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T162" s="20" t="s">
         <v>284</v>
@@ -16635,10 +16102,10 @@
         <v>16</v>
       </c>
       <c r="AD162" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="163" spans="2:30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B163" s="17">
         <v>40509</v>
       </c>
@@ -16675,10 +16142,10 @@
         <v>405</v>
       </c>
       <c r="N163" s="17">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="O163" s="17">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="P163" s="20" t="s">
         <v>282</v>
@@ -16687,10 +16154,10 @@
         <v>283</v>
       </c>
       <c r="R163" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S163" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T163" s="20" t="s">
         <v>284</v>
@@ -16721,10 +16188,10 @@
         <v>18</v>
       </c>
       <c r="AD163" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="164" spans="2:30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B164" s="17">
         <v>40510</v>
       </c>
@@ -16761,10 +16228,10 @@
         <v>405</v>
       </c>
       <c r="N164" s="17">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="O164" s="17">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="P164" s="20" t="s">
         <v>282</v>
@@ -16773,10 +16240,10 @@
         <v>283</v>
       </c>
       <c r="R164" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S164" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T164" s="20" t="s">
         <v>284</v>
@@ -16807,10 +16274,10 @@
         <v>20</v>
       </c>
       <c r="AD164" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="165" spans="2:30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B165" s="17">
         <v>40601</v>
       </c>
@@ -16847,10 +16314,10 @@
         <v>406</v>
       </c>
       <c r="N165" s="17">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="O165" s="17">
-        <v>30</v>
+        <v>2160</v>
       </c>
       <c r="P165" s="20" t="s">
         <v>288</v>
@@ -16859,10 +16326,10 @@
         <v>289</v>
       </c>
       <c r="R165" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S165" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T165" s="20" t="s">
         <v>290</v>
@@ -16893,10 +16360,10 @@
         <v>2</v>
       </c>
       <c r="AD165" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" spans="2:30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B166" s="17">
         <v>40602</v>
       </c>
@@ -16933,10 +16400,10 @@
         <v>406</v>
       </c>
       <c r="N166" s="17">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="O166" s="17">
-        <v>26</v>
+        <v>2080</v>
       </c>
       <c r="P166" s="20" t="s">
         <v>288</v>
@@ -16945,10 +16412,10 @@
         <v>289</v>
       </c>
       <c r="R166" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S166" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T166" s="20" t="s">
         <v>290</v>
@@ -16979,10 +16446,10 @@
         <v>4</v>
       </c>
       <c r="AD166" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="167" spans="2:30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B167" s="17">
         <v>40603</v>
       </c>
@@ -17019,10 +16486,10 @@
         <v>406</v>
       </c>
       <c r="N167" s="17">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="O167" s="17">
-        <v>22</v>
+        <v>2000</v>
       </c>
       <c r="P167" s="20" t="s">
         <v>288</v>
@@ -17031,10 +16498,10 @@
         <v>289</v>
       </c>
       <c r="R167" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S167" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T167" s="20" t="s">
         <v>290</v>
@@ -17065,10 +16532,10 @@
         <v>6</v>
       </c>
       <c r="AD167" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="2:30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B168" s="17">
         <v>40604</v>
       </c>
@@ -17105,10 +16572,10 @@
         <v>406</v>
       </c>
       <c r="N168" s="17">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="O168" s="17">
-        <v>20</v>
+        <v>1920</v>
       </c>
       <c r="P168" s="20" t="s">
         <v>288</v>
@@ -17117,10 +16584,10 @@
         <v>289</v>
       </c>
       <c r="R168" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S168" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T168" s="20" t="s">
         <v>290</v>
@@ -17151,10 +16618,10 @@
         <v>8</v>
       </c>
       <c r="AD168" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="2:30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B169" s="17">
         <v>40605</v>
       </c>
@@ -17191,10 +16658,10 @@
         <v>406</v>
       </c>
       <c r="N169" s="17">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="O169" s="17">
-        <v>18</v>
+        <v>1840</v>
       </c>
       <c r="P169" s="20" t="s">
         <v>288</v>
@@ -17203,10 +16670,10 @@
         <v>289</v>
       </c>
       <c r="R169" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S169" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T169" s="20" t="s">
         <v>290</v>
@@ -17237,10 +16704,10 @@
         <v>10</v>
       </c>
       <c r="AD169" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" spans="2:30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B170" s="17">
         <v>40606</v>
       </c>
@@ -17277,10 +16744,10 @@
         <v>406</v>
       </c>
       <c r="N170" s="17">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="O170" s="17">
-        <v>16</v>
+        <v>1760</v>
       </c>
       <c r="P170" s="20" t="s">
         <v>288</v>
@@ -17289,10 +16756,10 @@
         <v>289</v>
       </c>
       <c r="R170" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S170" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T170" s="20" t="s">
         <v>290</v>
@@ -17323,10 +16790,10 @@
         <v>12</v>
       </c>
       <c r="AD170" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="171" spans="2:30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="171" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B171" s="17">
         <v>40607</v>
       </c>
@@ -17363,10 +16830,10 @@
         <v>406</v>
       </c>
       <c r="N171" s="17">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="O171" s="17">
-        <v>14</v>
+        <v>1680</v>
       </c>
       <c r="P171" s="20" t="s">
         <v>288</v>
@@ -17375,10 +16842,10 @@
         <v>289</v>
       </c>
       <c r="R171" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S171" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T171" s="20" t="s">
         <v>290</v>
@@ -17409,10 +16876,10 @@
         <v>14</v>
       </c>
       <c r="AD171" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="172" spans="2:30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B172" s="17">
         <v>40608</v>
       </c>
@@ -17449,10 +16916,10 @@
         <v>406</v>
       </c>
       <c r="N172" s="17">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="O172" s="17">
-        <v>12</v>
+        <v>1600</v>
       </c>
       <c r="P172" s="20" t="s">
         <v>288</v>
@@ -17461,10 +16928,10 @@
         <v>289</v>
       </c>
       <c r="R172" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S172" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T172" s="20" t="s">
         <v>290</v>
@@ -17495,10 +16962,10 @@
         <v>16</v>
       </c>
       <c r="AD172" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="173" spans="2:30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="173" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B173" s="17">
         <v>40609</v>
       </c>
@@ -17535,10 +17002,10 @@
         <v>406</v>
       </c>
       <c r="N173" s="17">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="O173" s="17">
-        <v>10</v>
+        <v>1520</v>
       </c>
       <c r="P173" s="20" t="s">
         <v>288</v>
@@ -17547,10 +17014,10 @@
         <v>289</v>
       </c>
       <c r="R173" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S173" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T173" s="20" t="s">
         <v>290</v>
@@ -17581,10 +17048,10 @@
         <v>18</v>
       </c>
       <c r="AD173" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="2:30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="174" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B174" s="17">
         <v>40610</v>
       </c>
@@ -17621,10 +17088,10 @@
         <v>406</v>
       </c>
       <c r="N174" s="17">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="O174" s="17">
-        <v>8</v>
+        <v>1440</v>
       </c>
       <c r="P174" s="20" t="s">
         <v>288</v>
@@ -17633,10 +17100,10 @@
         <v>289</v>
       </c>
       <c r="R174" s="20">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="S174" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T174" s="20" t="s">
         <v>290</v>
@@ -17667,10 +17134,10 @@
         <v>20</v>
       </c>
       <c r="AD174" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="175" spans="2:30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="175" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B175" s="17">
         <v>50101</v>
       </c>
@@ -17707,16 +17174,16 @@
         <v>501</v>
       </c>
       <c r="N175" s="17">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="O175" s="17">
-        <v>30</v>
+        <v>778</v>
       </c>
       <c r="P175" s="20"/>
       <c r="Q175" s="20"/>
       <c r="R175" s="20"/>
       <c r="S175" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T175" s="20" t="s">
         <v>294</v>
@@ -17747,10 +17214,10 @@
         <v>2</v>
       </c>
       <c r="AD175" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="176" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B176" s="17">
         <v>50102</v>
       </c>
@@ -17787,16 +17254,16 @@
         <v>501</v>
       </c>
       <c r="N176" s="17">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="O176" s="17">
-        <v>26</v>
+        <v>749</v>
       </c>
       <c r="P176" s="20"/>
       <c r="Q176" s="20"/>
       <c r="R176" s="20"/>
       <c r="S176" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T176" s="20" t="s">
         <v>294</v>
@@ -17827,10 +17294,10 @@
         <v>4</v>
       </c>
       <c r="AD176" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B177" s="17">
         <v>50103</v>
       </c>
@@ -17867,16 +17334,16 @@
         <v>501</v>
       </c>
       <c r="N177" s="17">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="O177" s="17">
-        <v>22</v>
+        <v>720</v>
       </c>
       <c r="P177" s="20"/>
       <c r="Q177" s="20"/>
       <c r="R177" s="20"/>
       <c r="S177" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T177" s="20" t="s">
         <v>294</v>
@@ -17907,10 +17374,10 @@
         <v>6</v>
       </c>
       <c r="AD177" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="178" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B178" s="17">
         <v>50104</v>
       </c>
@@ -17947,16 +17414,16 @@
         <v>501</v>
       </c>
       <c r="N178" s="17">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="O178" s="17">
-        <v>20</v>
+        <v>692</v>
       </c>
       <c r="P178" s="20"/>
       <c r="Q178" s="20"/>
       <c r="R178" s="20"/>
       <c r="S178" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T178" s="20" t="s">
         <v>294</v>
@@ -17987,10 +17454,10 @@
         <v>8</v>
       </c>
       <c r="AD178" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B179" s="17">
         <v>50105</v>
       </c>
@@ -18027,16 +17494,16 @@
         <v>501</v>
       </c>
       <c r="N179" s="17">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="O179" s="17">
-        <v>18</v>
+        <v>663</v>
       </c>
       <c r="P179" s="20"/>
       <c r="Q179" s="20"/>
       <c r="R179" s="20"/>
       <c r="S179" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T179" s="20" t="s">
         <v>294</v>
@@ -18067,10 +17534,10 @@
         <v>10</v>
       </c>
       <c r="AD179" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B180" s="17">
         <v>50106</v>
       </c>
@@ -18107,16 +17574,16 @@
         <v>501</v>
       </c>
       <c r="N180" s="17">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="O180" s="17">
-        <v>16</v>
+        <v>634</v>
       </c>
       <c r="P180" s="20"/>
       <c r="Q180" s="20"/>
       <c r="R180" s="20"/>
       <c r="S180" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T180" s="20" t="s">
         <v>294</v>
@@ -18147,10 +17614,10 @@
         <v>12</v>
       </c>
       <c r="AD180" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="181" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B181" s="17">
         <v>50107</v>
       </c>
@@ -18187,16 +17654,16 @@
         <v>501</v>
       </c>
       <c r="N181" s="17">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="O181" s="17">
-        <v>14</v>
+        <v>605</v>
       </c>
       <c r="P181" s="20"/>
       <c r="Q181" s="20"/>
       <c r="R181" s="20"/>
       <c r="S181" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T181" s="20" t="s">
         <v>294</v>
@@ -18227,10 +17694,10 @@
         <v>14</v>
       </c>
       <c r="AD181" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="182" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B182" s="17">
         <v>50108</v>
       </c>
@@ -18267,16 +17734,16 @@
         <v>501</v>
       </c>
       <c r="N182" s="17">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="O182" s="17">
-        <v>12</v>
+        <v>576</v>
       </c>
       <c r="P182" s="20"/>
       <c r="Q182" s="20"/>
       <c r="R182" s="20"/>
       <c r="S182" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T182" s="20" t="s">
         <v>294</v>
@@ -18307,10 +17774,10 @@
         <v>16</v>
       </c>
       <c r="AD182" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B183" s="17">
         <v>50109</v>
       </c>
@@ -18347,16 +17814,16 @@
         <v>501</v>
       </c>
       <c r="N183" s="17">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="O183" s="17">
-        <v>10</v>
+        <v>547</v>
       </c>
       <c r="P183" s="20"/>
       <c r="Q183" s="20"/>
       <c r="R183" s="20"/>
       <c r="S183" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T183" s="20" t="s">
         <v>294</v>
@@ -18387,10 +17854,10 @@
         <v>18</v>
       </c>
       <c r="AD183" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B184" s="17">
         <v>50110</v>
       </c>
@@ -18427,16 +17894,16 @@
         <v>501</v>
       </c>
       <c r="N184" s="17">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="O184" s="17">
-        <v>8</v>
+        <v>519</v>
       </c>
       <c r="P184" s="20"/>
       <c r="Q184" s="20"/>
       <c r="R184" s="20"/>
       <c r="S184" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T184" s="20" t="s">
         <v>294</v>
@@ -18467,10 +17934,10 @@
         <v>20</v>
       </c>
       <c r="AD184" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B185" s="17">
         <v>50201</v>
       </c>
@@ -18507,16 +17974,16 @@
         <v>502</v>
       </c>
       <c r="N185" s="17">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O185" s="17">
-        <v>30</v>
+        <v>227</v>
       </c>
       <c r="P185" s="20"/>
       <c r="Q185" s="20"/>
       <c r="R185" s="20"/>
       <c r="S185" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T185" s="20" t="s">
         <v>308</v>
@@ -18547,10 +18014,10 @@
         <v>2</v>
       </c>
       <c r="AD185" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B186" s="17">
         <v>50202</v>
       </c>
@@ -18587,16 +18054,16 @@
         <v>502</v>
       </c>
       <c r="N186" s="17">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="O186" s="17">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="P186" s="20"/>
       <c r="Q186" s="20"/>
       <c r="R186" s="20"/>
       <c r="S186" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T186" s="20" t="s">
         <v>308</v>
@@ -18627,10 +18094,10 @@
         <v>4</v>
       </c>
       <c r="AD186" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="187" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B187" s="17">
         <v>50203</v>
       </c>
@@ -18667,16 +18134,16 @@
         <v>502</v>
       </c>
       <c r="N187" s="17">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="O187" s="17">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="P187" s="20"/>
       <c r="Q187" s="20"/>
       <c r="R187" s="20"/>
       <c r="S187" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T187" s="20" t="s">
         <v>308</v>
@@ -18707,10 +18174,10 @@
         <v>6</v>
       </c>
       <c r="AD187" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="188" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B188" s="17">
         <v>50204</v>
       </c>
@@ -18747,16 +18214,16 @@
         <v>502</v>
       </c>
       <c r="N188" s="17">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="O188" s="17">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="P188" s="20"/>
       <c r="Q188" s="20"/>
       <c r="R188" s="20"/>
       <c r="S188" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T188" s="20" t="s">
         <v>308</v>
@@ -18787,10 +18254,10 @@
         <v>8</v>
       </c>
       <c r="AD188" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="189" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B189" s="17">
         <v>50205</v>
       </c>
@@ -18827,16 +18294,16 @@
         <v>502</v>
       </c>
       <c r="N189" s="17">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="O189" s="17">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="P189" s="20"/>
       <c r="Q189" s="20"/>
       <c r="R189" s="20"/>
       <c r="S189" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T189" s="20" t="s">
         <v>308</v>
@@ -18867,10 +18334,10 @@
         <v>10</v>
       </c>
       <c r="AD189" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="190" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B190" s="17">
         <v>50206</v>
       </c>
@@ -18907,16 +18374,16 @@
         <v>502</v>
       </c>
       <c r="N190" s="17">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="O190" s="17">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="P190" s="20"/>
       <c r="Q190" s="20"/>
       <c r="R190" s="20"/>
       <c r="S190" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T190" s="20" t="s">
         <v>308</v>
@@ -18947,10 +18414,10 @@
         <v>12</v>
       </c>
       <c r="AD190" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="191" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B191" s="17">
         <v>50207</v>
       </c>
@@ -18987,16 +18454,16 @@
         <v>502</v>
       </c>
       <c r="N191" s="17">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="O191" s="17">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="P191" s="20"/>
       <c r="Q191" s="20"/>
       <c r="R191" s="20"/>
       <c r="S191" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T191" s="20" t="s">
         <v>308</v>
@@ -19027,10 +18494,10 @@
         <v>14</v>
       </c>
       <c r="AD191" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="192" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B192" s="17">
         <v>50208</v>
       </c>
@@ -19067,16 +18534,16 @@
         <v>502</v>
       </c>
       <c r="N192" s="17">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="O192" s="17">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="P192" s="20"/>
       <c r="Q192" s="20"/>
       <c r="R192" s="20"/>
       <c r="S192" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T192" s="20" t="s">
         <v>308</v>
@@ -19107,10 +18574,10 @@
         <v>16</v>
       </c>
       <c r="AD192" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B193" s="17">
         <v>50209</v>
       </c>
@@ -19147,16 +18614,16 @@
         <v>502</v>
       </c>
       <c r="N193" s="17">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O193" s="17">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="P193" s="20"/>
       <c r="Q193" s="20"/>
       <c r="R193" s="20"/>
       <c r="S193" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T193" s="20" t="s">
         <v>308</v>
@@ -19187,10 +18654,10 @@
         <v>18</v>
       </c>
       <c r="AD193" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="194" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B194" s="17">
         <v>50210</v>
       </c>
@@ -19230,13 +18697,13 @@
         <v>100</v>
       </c>
       <c r="O194" s="17">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="P194" s="20"/>
       <c r="Q194" s="20"/>
       <c r="R194" s="20"/>
       <c r="S194" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T194" s="20" t="s">
         <v>308</v>
@@ -19267,10 +18734,10 @@
         <v>20</v>
       </c>
       <c r="AD194" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="195" spans="2:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B195" s="17">
         <v>50301</v>
       </c>
@@ -19307,16 +18774,16 @@
         <v>503</v>
       </c>
       <c r="N195" s="17">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="O195" s="17">
-        <v>30</v>
+        <v>825</v>
       </c>
       <c r="P195" s="20"/>
       <c r="Q195" s="20"/>
       <c r="R195" s="20"/>
       <c r="S195" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T195" s="20" t="s">
         <v>311</v>
@@ -19347,10 +18814,10 @@
         <v>2</v>
       </c>
       <c r="AD195" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="196" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B196" s="17">
         <v>50302</v>
       </c>
@@ -19387,16 +18854,16 @@
         <v>503</v>
       </c>
       <c r="N196" s="17">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="O196" s="17">
-        <v>26</v>
+        <v>794</v>
       </c>
       <c r="P196" s="20"/>
       <c r="Q196" s="20"/>
       <c r="R196" s="20"/>
       <c r="S196" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T196" s="20" t="s">
         <v>311</v>
@@ -19427,10 +18894,10 @@
         <v>4</v>
       </c>
       <c r="AD196" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="197" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B197" s="17">
         <v>50303</v>
       </c>
@@ -19467,16 +18934,16 @@
         <v>503</v>
       </c>
       <c r="N197" s="17">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="O197" s="17">
-        <v>22</v>
+        <v>764</v>
       </c>
       <c r="P197" s="20"/>
       <c r="Q197" s="20"/>
       <c r="R197" s="20"/>
       <c r="S197" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T197" s="20" t="s">
         <v>311</v>
@@ -19507,10 +18974,10 @@
         <v>6</v>
       </c>
       <c r="AD197" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="198" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B198" s="17">
         <v>50304</v>
       </c>
@@ -19547,16 +19014,16 @@
         <v>503</v>
       </c>
       <c r="N198" s="17">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="O198" s="17">
-        <v>20</v>
+        <v>733</v>
       </c>
       <c r="P198" s="20"/>
       <c r="Q198" s="20"/>
       <c r="R198" s="20"/>
       <c r="S198" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T198" s="20" t="s">
         <v>311</v>
@@ -19587,10 +19054,10 @@
         <v>8</v>
       </c>
       <c r="AD198" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="199" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="199" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B199" s="17">
         <v>50305</v>
       </c>
@@ -19627,16 +19094,16 @@
         <v>503</v>
       </c>
       <c r="N199" s="17">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="O199" s="17">
-        <v>18</v>
+        <v>703</v>
       </c>
       <c r="P199" s="20"/>
       <c r="Q199" s="20"/>
       <c r="R199" s="20"/>
       <c r="S199" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T199" s="20" t="s">
         <v>311</v>
@@ -19667,10 +19134,10 @@
         <v>10</v>
       </c>
       <c r="AD199" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="200" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B200" s="17">
         <v>50306</v>
       </c>
@@ -19707,16 +19174,16 @@
         <v>503</v>
       </c>
       <c r="N200" s="17">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="O200" s="17">
-        <v>16</v>
+        <v>672</v>
       </c>
       <c r="P200" s="20"/>
       <c r="Q200" s="20"/>
       <c r="R200" s="20"/>
       <c r="S200" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T200" s="20" t="s">
         <v>311</v>
@@ -19747,10 +19214,10 @@
         <v>12</v>
       </c>
       <c r="AD200" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="201" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B201" s="17">
         <v>50307</v>
       </c>
@@ -19787,16 +19254,16 @@
         <v>503</v>
       </c>
       <c r="N201" s="17">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="O201" s="17">
-        <v>14</v>
+        <v>642</v>
       </c>
       <c r="P201" s="20"/>
       <c r="Q201" s="20"/>
       <c r="R201" s="20"/>
       <c r="S201" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T201" s="20" t="s">
         <v>311</v>
@@ -19827,10 +19294,10 @@
         <v>14</v>
       </c>
       <c r="AD201" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="202" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B202" s="17">
         <v>50308</v>
       </c>
@@ -19867,16 +19334,16 @@
         <v>503</v>
       </c>
       <c r="N202" s="17">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="O202" s="17">
-        <v>12</v>
+        <v>611</v>
       </c>
       <c r="P202" s="20"/>
       <c r="Q202" s="20"/>
       <c r="R202" s="20"/>
       <c r="S202" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T202" s="20" t="s">
         <v>311</v>
@@ -19907,10 +19374,10 @@
         <v>16</v>
       </c>
       <c r="AD202" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="203" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B203" s="17">
         <v>50309</v>
       </c>
@@ -19947,16 +19414,16 @@
         <v>503</v>
       </c>
       <c r="N203" s="17">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="O203" s="17">
-        <v>10</v>
+        <v>581</v>
       </c>
       <c r="P203" s="20"/>
       <c r="Q203" s="20"/>
       <c r="R203" s="20"/>
       <c r="S203" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T203" s="20" t="s">
         <v>311</v>
@@ -19987,10 +19454,10 @@
         <v>18</v>
       </c>
       <c r="AD203" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="204" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="204" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B204" s="17">
         <v>50310</v>
       </c>
@@ -20027,16 +19494,16 @@
         <v>503</v>
       </c>
       <c r="N204" s="17">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="O204" s="17">
-        <v>8</v>
+        <v>550</v>
       </c>
       <c r="P204" s="20"/>
       <c r="Q204" s="20"/>
       <c r="R204" s="20"/>
       <c r="S204" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T204" s="20" t="s">
         <v>311</v>
@@ -20067,10 +19534,10 @@
         <v>20</v>
       </c>
       <c r="AD204" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="205" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B205" s="17">
         <v>50401</v>
       </c>
@@ -20107,16 +19574,16 @@
         <v>504</v>
       </c>
       <c r="N205" s="17">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="O205" s="17">
-        <v>30</v>
+        <v>1210</v>
       </c>
       <c r="P205" s="20"/>
       <c r="Q205" s="20"/>
       <c r="R205" s="20"/>
       <c r="S205" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T205" s="20" t="s">
         <v>315</v>
@@ -20147,10 +19614,10 @@
         <v>2</v>
       </c>
       <c r="AD205" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="206" spans="2:30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="206" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B206" s="17">
         <v>50402</v>
       </c>
@@ -20187,16 +19654,16 @@
         <v>504</v>
       </c>
       <c r="N206" s="17">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="O206" s="17">
-        <v>26</v>
+        <v>1165</v>
       </c>
       <c r="P206" s="20"/>
       <c r="Q206" s="20"/>
       <c r="R206" s="20"/>
       <c r="S206" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T206" s="20" t="s">
         <v>315</v>
@@ -20227,10 +19694,10 @@
         <v>4</v>
       </c>
       <c r="AD206" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="207" spans="2:30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="207" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B207" s="17">
         <v>50403</v>
       </c>
@@ -20267,16 +19734,16 @@
         <v>504</v>
       </c>
       <c r="N207" s="17">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="O207" s="17">
-        <v>22</v>
+        <v>1120</v>
       </c>
       <c r="P207" s="20"/>
       <c r="Q207" s="20"/>
       <c r="R207" s="20"/>
       <c r="S207" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T207" s="20" t="s">
         <v>315</v>
@@ -20307,10 +19774,10 @@
         <v>6</v>
       </c>
       <c r="AD207" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="208" spans="2:30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="208" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B208" s="17">
         <v>50404</v>
       </c>
@@ -20347,16 +19814,16 @@
         <v>504</v>
       </c>
       <c r="N208" s="17">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="O208" s="17">
-        <v>20</v>
+        <v>1076</v>
       </c>
       <c r="P208" s="20"/>
       <c r="Q208" s="20"/>
       <c r="R208" s="20"/>
       <c r="S208" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T208" s="20" t="s">
         <v>315</v>
@@ -20387,10 +19854,10 @@
         <v>8</v>
       </c>
       <c r="AD208" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="209" spans="2:30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="209" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B209" s="17">
         <v>50405</v>
       </c>
@@ -20427,16 +19894,16 @@
         <v>504</v>
       </c>
       <c r="N209" s="17">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="O209" s="17">
-        <v>18</v>
+        <v>1031</v>
       </c>
       <c r="P209" s="20"/>
       <c r="Q209" s="20"/>
       <c r="R209" s="20"/>
       <c r="S209" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T209" s="20" t="s">
         <v>315</v>
@@ -20467,10 +19934,10 @@
         <v>10</v>
       </c>
       <c r="AD209" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="210" spans="2:30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="210" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B210" s="17">
         <v>50406</v>
       </c>
@@ -20507,16 +19974,16 @@
         <v>504</v>
       </c>
       <c r="N210" s="17">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="O210" s="17">
-        <v>16</v>
+        <v>986</v>
       </c>
       <c r="P210" s="20"/>
       <c r="Q210" s="20"/>
       <c r="R210" s="20"/>
       <c r="S210" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T210" s="20" t="s">
         <v>315</v>
@@ -20547,10 +20014,10 @@
         <v>12</v>
       </c>
       <c r="AD210" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="211" spans="2:30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="211" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B211" s="17">
         <v>50407</v>
       </c>
@@ -20587,16 +20054,16 @@
         <v>504</v>
       </c>
       <c r="N211" s="17">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="O211" s="17">
-        <v>14</v>
+        <v>941</v>
       </c>
       <c r="P211" s="20"/>
       <c r="Q211" s="20"/>
       <c r="R211" s="20"/>
       <c r="S211" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T211" s="20" t="s">
         <v>315</v>
@@ -20627,10 +20094,10 @@
         <v>14</v>
       </c>
       <c r="AD211" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="2:30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="212" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B212" s="17">
         <v>50408</v>
       </c>
@@ -20667,16 +20134,16 @@
         <v>504</v>
       </c>
       <c r="N212" s="17">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="O212" s="17">
-        <v>12</v>
+        <v>896</v>
       </c>
       <c r="P212" s="20"/>
       <c r="Q212" s="20"/>
       <c r="R212" s="20"/>
       <c r="S212" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T212" s="20" t="s">
         <v>315</v>
@@ -20707,10 +20174,10 @@
         <v>16</v>
       </c>
       <c r="AD212" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="213" spans="2:30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="213" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B213" s="17">
         <v>50409</v>
       </c>
@@ -20747,16 +20214,16 @@
         <v>504</v>
       </c>
       <c r="N213" s="17">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="O213" s="17">
-        <v>10</v>
+        <v>851</v>
       </c>
       <c r="P213" s="20"/>
       <c r="Q213" s="20"/>
       <c r="R213" s="20"/>
       <c r="S213" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T213" s="20" t="s">
         <v>315</v>
@@ -20787,10 +20254,10 @@
         <v>18</v>
       </c>
       <c r="AD213" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="214" spans="2:30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="214" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B214" s="17">
         <v>50410</v>
       </c>
@@ -20827,16 +20294,16 @@
         <v>504</v>
       </c>
       <c r="N214" s="17">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="O214" s="17">
-        <v>8</v>
+        <v>807</v>
       </c>
       <c r="P214" s="20"/>
       <c r="Q214" s="20"/>
       <c r="R214" s="20"/>
       <c r="S214" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T214" s="20" t="s">
         <v>315</v>
@@ -20867,10 +20334,10 @@
         <v>20</v>
       </c>
       <c r="AD214" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="215" spans="2:30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="215" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B215" s="17">
         <v>50501</v>
       </c>
@@ -20907,16 +20374,16 @@
         <v>505</v>
       </c>
       <c r="N215" s="17">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="O215" s="17">
-        <v>30</v>
+        <v>1134</v>
       </c>
       <c r="P215" s="20"/>
       <c r="Q215" s="20"/>
       <c r="R215" s="20"/>
       <c r="S215" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T215" s="20" t="s">
         <v>318</v>
@@ -20947,10 +20414,10 @@
         <v>2</v>
       </c>
       <c r="AD215" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="216" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B216" s="17">
         <v>50502</v>
       </c>
@@ -20987,16 +20454,16 @@
         <v>505</v>
       </c>
       <c r="N216" s="17">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="O216" s="17">
-        <v>26</v>
+        <v>1092</v>
       </c>
       <c r="P216" s="20"/>
       <c r="Q216" s="20"/>
       <c r="R216" s="20"/>
       <c r="S216" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T216" s="20" t="s">
         <v>318</v>
@@ -21027,10 +20494,10 @@
         <v>4</v>
       </c>
       <c r="AD216" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="217" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="217" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B217" s="17">
         <v>50503</v>
       </c>
@@ -21067,16 +20534,16 @@
         <v>505</v>
       </c>
       <c r="N217" s="17">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="O217" s="17">
-        <v>22</v>
+        <v>1050</v>
       </c>
       <c r="P217" s="20"/>
       <c r="Q217" s="20"/>
       <c r="R217" s="20"/>
       <c r="S217" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T217" s="20" t="s">
         <v>318</v>
@@ -21107,10 +20574,10 @@
         <v>6</v>
       </c>
       <c r="AD217" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="218" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="218" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B218" s="17">
         <v>50504</v>
       </c>
@@ -21147,16 +20614,16 @@
         <v>505</v>
       </c>
       <c r="N218" s="17">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="O218" s="17">
-        <v>20</v>
+        <v>1008</v>
       </c>
       <c r="P218" s="20"/>
       <c r="Q218" s="20"/>
       <c r="R218" s="20"/>
       <c r="S218" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T218" s="20" t="s">
         <v>318</v>
@@ -21187,10 +20654,10 @@
         <v>8</v>
       </c>
       <c r="AD218" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="219" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B219" s="17">
         <v>50505</v>
       </c>
@@ -21227,16 +20694,16 @@
         <v>505</v>
       </c>
       <c r="N219" s="17">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="O219" s="17">
-        <v>18</v>
+        <v>966</v>
       </c>
       <c r="P219" s="20"/>
       <c r="Q219" s="20"/>
       <c r="R219" s="20"/>
       <c r="S219" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T219" s="20" t="s">
         <v>318</v>
@@ -21267,10 +20734,10 @@
         <v>10</v>
       </c>
       <c r="AD219" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="220" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B220" s="17">
         <v>50506</v>
       </c>
@@ -21307,16 +20774,16 @@
         <v>505</v>
       </c>
       <c r="N220" s="17">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="O220" s="17">
-        <v>16</v>
+        <v>924</v>
       </c>
       <c r="P220" s="20"/>
       <c r="Q220" s="20"/>
       <c r="R220" s="20"/>
       <c r="S220" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T220" s="20" t="s">
         <v>318</v>
@@ -21347,10 +20814,10 @@
         <v>12</v>
       </c>
       <c r="AD220" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="221" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="221" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B221" s="17">
         <v>50507</v>
       </c>
@@ -21387,16 +20854,16 @@
         <v>505</v>
       </c>
       <c r="N221" s="17">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="O221" s="17">
-        <v>14</v>
+        <v>882</v>
       </c>
       <c r="P221" s="20"/>
       <c r="Q221" s="20"/>
       <c r="R221" s="20"/>
       <c r="S221" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T221" s="20" t="s">
         <v>318</v>
@@ -21427,10 +20894,10 @@
         <v>14</v>
       </c>
       <c r="AD221" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="222" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="222" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B222" s="17">
         <v>50508</v>
       </c>
@@ -21467,16 +20934,16 @@
         <v>505</v>
       </c>
       <c r="N222" s="17">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="O222" s="17">
-        <v>12</v>
+        <v>840</v>
       </c>
       <c r="P222" s="20"/>
       <c r="Q222" s="20"/>
       <c r="R222" s="20"/>
       <c r="S222" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T222" s="20" t="s">
         <v>318</v>
@@ -21507,10 +20974,10 @@
         <v>16</v>
       </c>
       <c r="AD222" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="223" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="223" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B223" s="17">
         <v>50509</v>
       </c>
@@ -21547,16 +21014,16 @@
         <v>505</v>
       </c>
       <c r="N223" s="17">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="O223" s="17">
-        <v>10</v>
+        <v>798</v>
       </c>
       <c r="P223" s="20"/>
       <c r="Q223" s="20"/>
       <c r="R223" s="20"/>
       <c r="S223" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T223" s="20" t="s">
         <v>318</v>
@@ -21587,10 +21054,10 @@
         <v>18</v>
       </c>
       <c r="AD223" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="224" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B224" s="17">
         <v>50510</v>
       </c>
@@ -21627,16 +21094,16 @@
         <v>505</v>
       </c>
       <c r="N224" s="17">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="O224" s="17">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="P224" s="20"/>
       <c r="Q224" s="20"/>
       <c r="R224" s="20"/>
       <c r="S224" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T224" s="20" t="s">
         <v>318</v>
@@ -21667,10 +21134,10 @@
         <v>20</v>
       </c>
       <c r="AD224" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="225" spans="2:30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="225" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B225" s="17">
         <v>50601</v>
       </c>
@@ -21707,16 +21174,16 @@
         <v>506</v>
       </c>
       <c r="N225" s="17">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="O225" s="17">
-        <v>30</v>
+        <v>1701</v>
       </c>
       <c r="P225" s="20"/>
       <c r="Q225" s="20"/>
       <c r="R225" s="20"/>
       <c r="S225" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T225" s="20" t="s">
         <v>322</v>
@@ -21747,10 +21214,10 @@
         <v>2</v>
       </c>
       <c r="AD225" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="226" spans="2:30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="226" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B226" s="17">
         <v>50602</v>
       </c>
@@ -21787,16 +21254,16 @@
         <v>506</v>
       </c>
       <c r="N226" s="17">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="O226" s="17">
-        <v>26</v>
+        <v>1638</v>
       </c>
       <c r="P226" s="20"/>
       <c r="Q226" s="20"/>
       <c r="R226" s="20"/>
       <c r="S226" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T226" s="20" t="s">
         <v>322</v>
@@ -21827,10 +21294,10 @@
         <v>4</v>
       </c>
       <c r="AD226" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="227" spans="2:30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="227" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B227" s="17">
         <v>50603</v>
       </c>
@@ -21867,16 +21334,16 @@
         <v>506</v>
       </c>
       <c r="N227" s="17">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="O227" s="17">
-        <v>22</v>
+        <v>1575</v>
       </c>
       <c r="P227" s="20"/>
       <c r="Q227" s="20"/>
       <c r="R227" s="20"/>
       <c r="S227" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T227" s="20" t="s">
         <v>322</v>
@@ -21907,10 +21374,10 @@
         <v>6</v>
       </c>
       <c r="AD227" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="228" spans="2:30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="228" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B228" s="17">
         <v>50604</v>
       </c>
@@ -21947,16 +21414,16 @@
         <v>506</v>
       </c>
       <c r="N228" s="17">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="O228" s="17">
-        <v>20</v>
+        <v>1512</v>
       </c>
       <c r="P228" s="20"/>
       <c r="Q228" s="20"/>
       <c r="R228" s="20"/>
       <c r="S228" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T228" s="20" t="s">
         <v>322</v>
@@ -21987,10 +21454,10 @@
         <v>8</v>
       </c>
       <c r="AD228" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="229" spans="2:30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="229" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B229" s="17">
         <v>50605</v>
       </c>
@@ -22027,16 +21494,16 @@
         <v>506</v>
       </c>
       <c r="N229" s="17">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="O229" s="17">
-        <v>18</v>
+        <v>1449</v>
       </c>
       <c r="P229" s="20"/>
       <c r="Q229" s="20"/>
       <c r="R229" s="20"/>
       <c r="S229" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T229" s="20" t="s">
         <v>322</v>
@@ -22067,10 +21534,10 @@
         <v>10</v>
       </c>
       <c r="AD229" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="230" spans="2:30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="230" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B230" s="17">
         <v>50606</v>
       </c>
@@ -22107,16 +21574,16 @@
         <v>506</v>
       </c>
       <c r="N230" s="17">
-        <v>60</v>
+        <v>233</v>
       </c>
       <c r="O230" s="17">
-        <v>16</v>
+        <v>1386</v>
       </c>
       <c r="P230" s="20"/>
       <c r="Q230" s="20"/>
       <c r="R230" s="20"/>
       <c r="S230" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T230" s="20" t="s">
         <v>322</v>
@@ -22147,10 +21614,10 @@
         <v>12</v>
       </c>
       <c r="AD230" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="231" spans="2:30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="231" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B231" s="17">
         <v>50607</v>
       </c>
@@ -22187,16 +21654,16 @@
         <v>506</v>
       </c>
       <c r="N231" s="17">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="O231" s="17">
-        <v>14</v>
+        <v>1323</v>
       </c>
       <c r="P231" s="20"/>
       <c r="Q231" s="20"/>
       <c r="R231" s="20"/>
       <c r="S231" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T231" s="20" t="s">
         <v>322</v>
@@ -22227,10 +21694,10 @@
         <v>14</v>
       </c>
       <c r="AD231" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="232" spans="2:30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="232" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B232" s="17">
         <v>50608</v>
       </c>
@@ -22267,16 +21734,16 @@
         <v>506</v>
       </c>
       <c r="N232" s="17">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="O232" s="17">
-        <v>12</v>
+        <v>1260</v>
       </c>
       <c r="P232" s="20"/>
       <c r="Q232" s="20"/>
       <c r="R232" s="20"/>
       <c r="S232" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T232" s="20" t="s">
         <v>322</v>
@@ -22307,10 +21774,10 @@
         <v>16</v>
       </c>
       <c r="AD232" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="233" spans="2:30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="233" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B233" s="17">
         <v>50609</v>
       </c>
@@ -22347,16 +21814,16 @@
         <v>506</v>
       </c>
       <c r="N233" s="17">
-        <v>90</v>
+        <v>283</v>
       </c>
       <c r="O233" s="17">
-        <v>10</v>
+        <v>1197</v>
       </c>
       <c r="P233" s="20"/>
       <c r="Q233" s="20"/>
       <c r="R233" s="20"/>
       <c r="S233" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T233" s="20" t="s">
         <v>322</v>
@@ -22387,10 +21854,10 @@
         <v>18</v>
       </c>
       <c r="AD233" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="234" spans="2:30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="234" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B234" s="17">
         <v>50610</v>
       </c>
@@ -22427,16 +21894,16 @@
         <v>506</v>
       </c>
       <c r="N234" s="17">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O234" s="17">
-        <v>8</v>
+        <v>1134</v>
       </c>
       <c r="P234" s="20"/>
       <c r="Q234" s="20"/>
       <c r="R234" s="20"/>
       <c r="S234" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T234" s="20" t="s">
         <v>322</v>
@@ -22467,10 +21934,10 @@
         <v>20</v>
       </c>
       <c r="AD234" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="235" spans="2:30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="235" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B235" s="20">
         <v>50701</v>
       </c>
@@ -22507,16 +21974,16 @@
         <v>507</v>
       </c>
       <c r="N235" s="17">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="O235" s="17">
-        <v>30</v>
+        <v>1512</v>
       </c>
       <c r="P235" s="20"/>
       <c r="Q235" s="20"/>
       <c r="R235" s="20"/>
       <c r="S235" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T235" s="20" t="s">
         <v>325</v>
@@ -22547,10 +22014,10 @@
         <v>2</v>
       </c>
       <c r="AD235" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="236" spans="2:30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="236" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B236" s="20">
         <v>50702</v>
       </c>
@@ -22587,16 +22054,16 @@
         <v>507</v>
       </c>
       <c r="N236" s="17">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="O236" s="17">
-        <v>26</v>
+        <v>1456</v>
       </c>
       <c r="P236" s="20"/>
       <c r="Q236" s="20"/>
       <c r="R236" s="20"/>
       <c r="S236" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T236" s="20" t="s">
         <v>325</v>
@@ -22627,10 +22094,10 @@
         <v>4</v>
       </c>
       <c r="AD236" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="237" spans="2:30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="237" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B237" s="20">
         <v>50703</v>
       </c>
@@ -22667,16 +22134,16 @@
         <v>507</v>
       </c>
       <c r="N237" s="17">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="O237" s="17">
-        <v>22</v>
+        <v>1400</v>
       </c>
       <c r="P237" s="20"/>
       <c r="Q237" s="20"/>
       <c r="R237" s="20"/>
       <c r="S237" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T237" s="20" t="s">
         <v>325</v>
@@ -22707,10 +22174,10 @@
         <v>6</v>
       </c>
       <c r="AD237" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="238" spans="2:30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B238" s="20">
         <v>50704</v>
       </c>
@@ -22747,16 +22214,16 @@
         <v>507</v>
       </c>
       <c r="N238" s="17">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="O238" s="17">
-        <v>20</v>
+        <v>1344</v>
       </c>
       <c r="P238" s="20"/>
       <c r="Q238" s="20"/>
       <c r="R238" s="20"/>
       <c r="S238" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T238" s="20" t="s">
         <v>325</v>
@@ -22787,10 +22254,10 @@
         <v>8</v>
       </c>
       <c r="AD238" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="239" spans="2:30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="239" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B239" s="20">
         <v>50705</v>
       </c>
@@ -22827,16 +22294,16 @@
         <v>507</v>
       </c>
       <c r="N239" s="17">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="O239" s="17">
-        <v>18</v>
+        <v>1288</v>
       </c>
       <c r="P239" s="20"/>
       <c r="Q239" s="20"/>
       <c r="R239" s="20"/>
       <c r="S239" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T239" s="20" t="s">
         <v>325</v>
@@ -22867,10 +22334,10 @@
         <v>10</v>
       </c>
       <c r="AD239" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="240" spans="2:30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="240" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B240" s="20">
         <v>50706</v>
       </c>
@@ -22907,16 +22374,16 @@
         <v>507</v>
       </c>
       <c r="N240" s="17">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="O240" s="17">
-        <v>16</v>
+        <v>1232</v>
       </c>
       <c r="P240" s="20"/>
       <c r="Q240" s="20"/>
       <c r="R240" s="20"/>
       <c r="S240" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T240" s="20" t="s">
         <v>325</v>
@@ -22947,10 +22414,10 @@
         <v>12</v>
       </c>
       <c r="AD240" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="241" spans="2:30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="241" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B241" s="20">
         <v>50707</v>
       </c>
@@ -22987,16 +22454,16 @@
         <v>507</v>
       </c>
       <c r="N241" s="17">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="O241" s="17">
-        <v>14</v>
+        <v>1176</v>
       </c>
       <c r="P241" s="20"/>
       <c r="Q241" s="20"/>
       <c r="R241" s="20"/>
       <c r="S241" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T241" s="20" t="s">
         <v>325</v>
@@ -23027,10 +22494,10 @@
         <v>14</v>
       </c>
       <c r="AD241" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="242" spans="2:30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="242" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B242" s="20">
         <v>50708</v>
       </c>
@@ -23067,16 +22534,16 @@
         <v>507</v>
       </c>
       <c r="N242" s="17">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="O242" s="17">
-        <v>12</v>
+        <v>1120</v>
       </c>
       <c r="P242" s="20"/>
       <c r="Q242" s="20"/>
       <c r="R242" s="20"/>
       <c r="S242" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T242" s="20" t="s">
         <v>325</v>
@@ -23107,10 +22574,10 @@
         <v>16</v>
       </c>
       <c r="AD242" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="243" spans="2:30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="243" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B243" s="20">
         <v>50709</v>
       </c>
@@ -23147,16 +22614,16 @@
         <v>507</v>
       </c>
       <c r="N243" s="17">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="O243" s="17">
-        <v>10</v>
+        <v>1064</v>
       </c>
       <c r="P243" s="20"/>
       <c r="Q243" s="20"/>
       <c r="R243" s="20"/>
       <c r="S243" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T243" s="20" t="s">
         <v>325</v>
@@ -23187,10 +22654,10 @@
         <v>18</v>
       </c>
       <c r="AD243" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="244" spans="2:30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="244" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B244" s="20">
         <v>50710</v>
       </c>
@@ -23227,16 +22694,16 @@
         <v>507</v>
       </c>
       <c r="N244" s="17">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="O244" s="17">
-        <v>8</v>
+        <v>1008</v>
       </c>
       <c r="P244" s="20"/>
       <c r="Q244" s="20"/>
       <c r="R244" s="20"/>
       <c r="S244" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T244" s="20" t="s">
         <v>325</v>
@@ -23267,10 +22734,10 @@
         <v>20</v>
       </c>
       <c r="AD244" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="245" spans="2:30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="245" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B245" s="20">
         <v>50801</v>
       </c>
@@ -23307,16 +22774,16 @@
         <v>508</v>
       </c>
       <c r="N245" s="17">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O245" s="17">
-        <v>30</v>
+        <v>284</v>
       </c>
       <c r="P245" s="20"/>
       <c r="Q245" s="20"/>
       <c r="R245" s="20"/>
       <c r="S245" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T245" s="20" t="s">
         <v>329</v>
@@ -23347,10 +22814,10 @@
         <v>2</v>
       </c>
       <c r="AD245" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="246" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B246" s="20">
         <v>50802</v>
       </c>
@@ -23387,16 +22854,16 @@
         <v>508</v>
       </c>
       <c r="N246" s="17">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="O246" s="17">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="P246" s="20"/>
       <c r="Q246" s="20"/>
       <c r="R246" s="20"/>
       <c r="S246" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T246" s="20" t="s">
         <v>329</v>
@@ -23427,10 +22894,10 @@
         <v>4</v>
       </c>
       <c r="AD246" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="247" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B247" s="20">
         <v>50803</v>
       </c>
@@ -23467,16 +22934,16 @@
         <v>508</v>
       </c>
       <c r="N247" s="17">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="O247" s="17">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="P247" s="20"/>
       <c r="Q247" s="20"/>
       <c r="R247" s="20"/>
       <c r="S247" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T247" s="20" t="s">
         <v>329</v>
@@ -23507,10 +22974,10 @@
         <v>6</v>
       </c>
       <c r="AD247" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="248" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B248" s="20">
         <v>50804</v>
       </c>
@@ -23547,16 +23014,16 @@
         <v>508</v>
       </c>
       <c r="N248" s="17">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="O248" s="17">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="P248" s="20"/>
       <c r="Q248" s="20"/>
       <c r="R248" s="20"/>
       <c r="S248" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T248" s="20" t="s">
         <v>329</v>
@@ -23587,10 +23054,10 @@
         <v>8</v>
       </c>
       <c r="AD248" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="249" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B249" s="20">
         <v>50805</v>
       </c>
@@ -23627,16 +23094,16 @@
         <v>508</v>
       </c>
       <c r="N249" s="17">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="O249" s="17">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="P249" s="20"/>
       <c r="Q249" s="20"/>
       <c r="R249" s="20"/>
       <c r="S249" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T249" s="20" t="s">
         <v>329</v>
@@ -23667,10 +23134,10 @@
         <v>10</v>
       </c>
       <c r="AD249" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="250" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B250" s="20">
         <v>50806</v>
       </c>
@@ -23707,16 +23174,16 @@
         <v>508</v>
       </c>
       <c r="N250" s="17">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="O250" s="17">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="P250" s="20"/>
       <c r="Q250" s="20"/>
       <c r="R250" s="20"/>
       <c r="S250" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T250" s="20" t="s">
         <v>329</v>
@@ -23747,10 +23214,10 @@
         <v>12</v>
       </c>
       <c r="AD250" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="251" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="251" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B251" s="20">
         <v>50807</v>
       </c>
@@ -23787,16 +23254,16 @@
         <v>508</v>
       </c>
       <c r="N251" s="17">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="O251" s="17">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="P251" s="20"/>
       <c r="Q251" s="20"/>
       <c r="R251" s="20"/>
       <c r="S251" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T251" s="20" t="s">
         <v>329</v>
@@ -23827,10 +23294,10 @@
         <v>14</v>
       </c>
       <c r="AD251" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="252" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B252" s="20">
         <v>50808</v>
       </c>
@@ -23867,16 +23334,16 @@
         <v>508</v>
       </c>
       <c r="N252" s="17">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="O252" s="17">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="P252" s="20"/>
       <c r="Q252" s="20"/>
       <c r="R252" s="20"/>
       <c r="S252" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T252" s="20" t="s">
         <v>329</v>
@@ -23907,10 +23374,10 @@
         <v>16</v>
       </c>
       <c r="AD252" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="253" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B253" s="20">
         <v>50809</v>
       </c>
@@ -23947,16 +23414,16 @@
         <v>508</v>
       </c>
       <c r="N253" s="17">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O253" s="17">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="P253" s="20"/>
       <c r="Q253" s="20"/>
       <c r="R253" s="20"/>
       <c r="S253" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T253" s="20" t="s">
         <v>329</v>
@@ -23987,10 +23454,10 @@
         <v>18</v>
       </c>
       <c r="AD253" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="254" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B254" s="20">
         <v>50810</v>
       </c>
@@ -24030,13 +23497,13 @@
         <v>100</v>
       </c>
       <c r="O254" s="17">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="P254" s="20"/>
       <c r="Q254" s="20"/>
       <c r="R254" s="20"/>
       <c r="S254" s="17">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T254" s="20" t="s">
         <v>329</v>
@@ -24067,10 +23534,10 @@
         <v>20</v>
       </c>
       <c r="AD254" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="255" spans="2:30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="255" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B255" s="20">
         <v>60101</v>
       </c>
@@ -24138,7 +23605,7 @@
       </c>
       <c r="AD255" s="20"/>
     </row>
-    <row r="256" spans="2:30">
+    <row r="256" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B256" s="20">
         <v>60102</v>
       </c>
@@ -24206,7 +23673,7 @@
       </c>
       <c r="AD256" s="20"/>
     </row>
-    <row r="257" spans="2:30">
+    <row r="257" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B257" s="20">
         <v>60103</v>
       </c>
@@ -24274,7 +23741,7 @@
       </c>
       <c r="AD257" s="20"/>
     </row>
-    <row r="258" spans="2:30">
+    <row r="258" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B258" s="20">
         <v>60104</v>
       </c>
@@ -24342,7 +23809,7 @@
       </c>
       <c r="AD258" s="20"/>
     </row>
-    <row r="259" spans="2:30">
+    <row r="259" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B259" s="20">
         <v>60105</v>
       </c>
@@ -24410,7 +23877,7 @@
       </c>
       <c r="AD259" s="20"/>
     </row>
-    <row r="260" spans="2:30">
+    <row r="260" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B260" s="20">
         <v>60106</v>
       </c>
@@ -24478,7 +23945,7 @@
       </c>
       <c r="AD260" s="20"/>
     </row>
-    <row r="261" spans="2:30">
+    <row r="261" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B261" s="20">
         <v>60107</v>
       </c>
@@ -24546,7 +24013,7 @@
       </c>
       <c r="AD261" s="20"/>
     </row>
-    <row r="262" spans="2:30">
+    <row r="262" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B262" s="20">
         <v>60108</v>
       </c>
@@ -24614,7 +24081,7 @@
       </c>
       <c r="AD262" s="20"/>
     </row>
-    <row r="263" spans="2:30">
+    <row r="263" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B263" s="20">
         <v>60109</v>
       </c>
@@ -24682,7 +24149,7 @@
       </c>
       <c r="AD263" s="20"/>
     </row>
-    <row r="264" spans="2:30">
+    <row r="264" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B264" s="20">
         <v>60110</v>
       </c>
@@ -24750,7 +24217,7 @@
       </c>
       <c r="AD264" s="20"/>
     </row>
-    <row r="265" spans="2:30">
+    <row r="265" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B265" s="20">
         <v>70101</v>
       </c>
@@ -24818,7 +24285,7 @@
       </c>
       <c r="AD265" s="20"/>
     </row>
-    <row r="266" spans="2:30">
+    <row r="266" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B266" s="20">
         <v>70102</v>
       </c>
@@ -24886,7 +24353,7 @@
       </c>
       <c r="AD266" s="20"/>
     </row>
-    <row r="267" spans="2:30">
+    <row r="267" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B267" s="20">
         <v>70103</v>
       </c>
@@ -24954,7 +24421,7 @@
       </c>
       <c r="AD267" s="20"/>
     </row>
-    <row r="268" spans="2:30">
+    <row r="268" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B268" s="20">
         <v>70104</v>
       </c>
@@ -25022,7 +24489,7 @@
       </c>
       <c r="AD268" s="20"/>
     </row>
-    <row r="269" spans="2:30">
+    <row r="269" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B269" s="20">
         <v>70105</v>
       </c>
@@ -25090,7 +24557,7 @@
       </c>
       <c r="AD269" s="20"/>
     </row>
-    <row r="270" spans="2:30">
+    <row r="270" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B270" s="20">
         <v>70106</v>
       </c>
@@ -25158,7 +24625,7 @@
       </c>
       <c r="AD270" s="20"/>
     </row>
-    <row r="271" spans="2:30">
+    <row r="271" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B271" s="20">
         <v>70107</v>
       </c>
@@ -25226,7 +24693,7 @@
       </c>
       <c r="AD271" s="20"/>
     </row>
-    <row r="272" spans="2:30">
+    <row r="272" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B272" s="20">
         <v>70108</v>
       </c>
@@ -25294,7 +24761,7 @@
       </c>
       <c r="AD272" s="20"/>
     </row>
-    <row r="273" spans="2:30">
+    <row r="273" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B273" s="20">
         <v>70109</v>
       </c>
@@ -25362,7 +24829,7 @@
       </c>
       <c r="AD273" s="20"/>
     </row>
-    <row r="274" spans="2:30">
+    <row r="274" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B274" s="20">
         <v>70110</v>
       </c>
@@ -25431,15 +24898,15 @@
       <c r="AD274" s="20"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S42"/>
   <sheetViews>
@@ -25447,9 +24914,9 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="27" spans="1:19">
+    <row r="1" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>345</v>
       </c>
@@ -25497,7 +24964,7 @@
         <v>30001;3|30004;2|30003;1|20001;1</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:19">
+    <row r="2" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -25545,7 +25012,7 @@
         <v>30001;2|30003;1|20001;1</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:19">
+    <row r="3" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -25593,7 +25060,7 @@
         <v>30001;4|30004;2|30003;1|20001;2</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:19">
+    <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -25641,7 +25108,7 @@
         <v>30001;1|30003;1|20001;1</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:19">
+    <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -25689,7 +25156,7 @@
         <v>30002;3|30003;1|20001;1</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:19">
+    <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -25737,7 +25204,7 @@
         <v>30004;3|30003;1|20002;1|20001;1</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:19">
+    <row r="7" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -25772,7 +25239,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:19">
+    <row r="8" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -25807,7 +25274,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:19">
+    <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -25842,7 +25309,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:19">
+    <row r="10" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -25880,7 +25347,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:19">
+    <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -25918,7 +25385,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:19">
+    <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K12" s="2">
         <v>50003</v>
       </c>
@@ -25929,17 +25396,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="N13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="N14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B15" t="str">
         <f>$K$2&amp;";"&amp;B2</f>
         <v>20002;20</v>
@@ -25957,10 +25424,10 @@
         <v>30004;12|30005;10</v>
       </c>
       <c r="N15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B16" t="str">
         <f t="shared" ref="B16:B24" si="1">$K$2&amp;";"&amp;B3</f>
         <v>20002;22</v>
@@ -25978,7 +25445,7 @@
         <v>30004;13|30005;11</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B17" t="str">
         <f t="shared" si="1"/>
         <v>20002;24</v>
@@ -25996,7 +25463,7 @@
         <v>30004;14|30005;12</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B18" t="str">
         <f t="shared" si="1"/>
         <v>20002;26</v>
@@ -26014,7 +25481,7 @@
         <v>30004;15|30005;13</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B19" t="str">
         <f t="shared" si="1"/>
         <v>20002;28</v>
@@ -26032,7 +25499,7 @@
         <v>30004;16|30005;14</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B20" t="str">
         <f t="shared" si="1"/>
         <v>20002;30</v>
@@ -26050,7 +25517,7 @@
         <v>30004;18|30005;15</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B21" t="str">
         <f t="shared" si="1"/>
         <v>20002;32</v>
@@ -26068,7 +25535,7 @@
         <v>30004;19|30005;16</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B22" t="str">
         <f t="shared" si="1"/>
         <v>20002;34</v>
@@ -26086,7 +25553,7 @@
         <v>30004;20|30005;17</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B23" t="str">
         <f t="shared" si="1"/>
         <v>20002;36</v>
@@ -26104,7 +25571,7 @@
         <v>30004;21|30005;18</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B24" t="str">
         <f t="shared" si="1"/>
         <v>20002;38</v>
@@ -26122,121 +25589,121 @@
         <v>30004;22|30005;19</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C29" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C30" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C31" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C32" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C33" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C34" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C35" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>